--- a/CSVFiles/RESULTS/DataCutOff.xlsx
+++ b/CSVFiles/RESULTS/DataCutOff.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Grafico1" sheetId="2" r:id="rId1"/>
@@ -1419,11 +1419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="364392720"/>
-        <c:axId val="364390368"/>
+        <c:axId val="307874520"/>
+        <c:axId val="307874912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="364392720"/>
+        <c:axId val="307874520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1522,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364390368"/>
+        <c:crossAx val="307874912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364390368"/>
+        <c:axId val="307874912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1638,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364392720"/>
+        <c:crossAx val="307874520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1816,11 +1816,28 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="34000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:noFill/>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>outputData!$A$2:$A$22</c:f>
@@ -1984,7 +2001,7 @@
           <c:invertIfNegative val="0"/>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -2160,7 +2177,7 @@
           <c:invertIfNegative val="0"/>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
@@ -2336,7 +2353,7 @@
           <c:invertIfNegative val="0"/>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -2535,16 +2552,77 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="362396656"/>
-        <c:axId val="362394696"/>
+        <c:axId val="307875696"/>
+        <c:axId val="307876088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="362396656"/>
+        <c:axId val="307875696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1500"/>
+                  <a:t>Array</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1500" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1500"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2567,7 +2645,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2582,7 +2660,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362394696"/>
+        <c:crossAx val="307876088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2590,7 +2668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="362394696"/>
+        <c:axId val="307876088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,6 +2688,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1500"/>
+                  <a:t>Speed Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2626,7 +2760,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2641,7 +2775,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362396656"/>
+        <c:crossAx val="307875696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2669,7 +2803,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2738,7 +2872,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2751,14 +2885,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" b="1"/>
+              <a:rPr lang="it-IT" sz="1600" b="1"/>
               <a:t>Speed up on</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="it-IT" b="1" baseline="0"/>
+              <a:rPr lang="it-IT" sz="1600" b="1" baseline="0"/>
               <a:t> array-cutoff parameter for 20 server thread </a:t>
             </a:r>
-            <a:endParaRPr lang="it-IT" b="1"/>
+            <a:endParaRPr lang="it-IT" sz="1600" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2776,7 +2910,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2817,7 +2951,7 @@
           <c:invertIfNegative val="0"/>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -3169,7 +3303,7 @@
           <c:invertIfNegative val="0"/>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="57150" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
@@ -3342,7 +3476,7 @@
           <c:invertIfNegative val="0"/>
           <c:trendline>
             <c:spPr>
-              <a:ln w="57150" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -3509,16 +3643,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="362395480"/>
-        <c:axId val="362397048"/>
+        <c:axId val="307876480"/>
+        <c:axId val="307879224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="362395480"/>
+        <c:axId val="307876480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3556,7 +3746,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362397048"/>
+        <c:crossAx val="307879224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3564,7 +3754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="362397048"/>
+        <c:axId val="307879224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3584,6 +3774,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1500"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1500" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1500"/>
+                  <a:t>Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3615,7 +3869,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362395480"/>
+        <c:crossAx val="307876480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5374,7 +5628,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5385,7 +5639,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5738,7 +5992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K211"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A85" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -13556,7 +13810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>

--- a/CSVFiles/RESULTS/DataCutOff.xlsx
+++ b/CSVFiles/RESULTS/DataCutOff.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Grafico1" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="outputData" sheetId="1" r:id="rId3"/>
     <sheet name="GraficoCutOff!00+" sheetId="4" r:id="rId4"/>
     <sheet name="cutOff1000+" sheetId="3" r:id="rId5"/>
+    <sheet name="Foglio1" sheetId="6" r:id="rId6"/>
+    <sheet name="Foglio2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
   <si>
     <t>ARRAY SIZE</t>
   </si>
@@ -51,12 +53,45 @@
   <si>
     <t>SEQ CLOCK</t>
   </si>
+  <si>
+    <t>cutoff: 1000</t>
+  </si>
+  <si>
+    <t>cutoff: 50000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multitreading wallclock time </t>
+  </si>
+  <si>
+    <t>sequential wallclock time</t>
+  </si>
+  <si>
+    <t>speed-up</t>
+  </si>
+  <si>
+    <t>array size</t>
+  </si>
+  <si>
+    <t>cutoff: 5000</t>
+  </si>
+  <si>
+    <t>cutoff: 10000</t>
+  </si>
+  <si>
+    <t>cutoff: 50</t>
+  </si>
+  <si>
+    <t>cutoff: 100</t>
+  </si>
+  <si>
+    <t>cutoff: 500</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +226,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,8 +439,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -536,6 +603,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -581,7 +793,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -595,6 +807,104 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="18" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="40" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="38" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="18" fillId="38" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="38" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="38" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1419,11 +1729,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="307874520"/>
-        <c:axId val="307874912"/>
+        <c:axId val="362712416"/>
+        <c:axId val="362713200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="307874520"/>
+        <c:axId val="362712416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1832,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307874912"/>
+        <c:crossAx val="362713200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307874912"/>
+        <c:axId val="362713200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1948,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307874520"/>
+        <c:crossAx val="362712416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2552,11 +2862,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="307875696"/>
-        <c:axId val="307876088"/>
+        <c:axId val="362712024"/>
+        <c:axId val="362713592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="307875696"/>
+        <c:axId val="362712024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,7 +2970,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307876088"/>
+        <c:crossAx val="362713592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2668,7 +2978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307876088"/>
+        <c:axId val="362713592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,7 +3085,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307875696"/>
+        <c:crossAx val="362712024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3643,11 +3953,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="307876480"/>
-        <c:axId val="307879224"/>
+        <c:axId val="362702616"/>
+        <c:axId val="362697912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="307876480"/>
+        <c:axId val="362702616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3746,7 +4056,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307879224"/>
+        <c:crossAx val="362697912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3754,7 +4064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307879224"/>
+        <c:axId val="362697912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,7 +4179,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307876480"/>
+        <c:crossAx val="362702616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5617,10 +5927,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -5628,10 +5939,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -5639,10 +5951,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -5650,7 +5963,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302338" cy="6073734"/>
+    <xdr:ext cx="8662601" cy="6281351"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1"/>
@@ -5677,7 +5990,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302338" cy="6073734"/>
+    <xdr:ext cx="8662601" cy="6281351"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1"/>
@@ -5704,7 +6017,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302338" cy="6073734"/>
+    <xdr:ext cx="8662601" cy="6281351"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1"/>
@@ -5992,8 +6305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K211"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A85" sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K211" sqref="A2:K211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13810,8 +14123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M83" sqref="M83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J106" sqref="A1:J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17341,4 +17654,6369 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Y346"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="14"/>
+    <col min="3" max="3" width="15.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="28"/>
+    <col min="7" max="7" width="14.5703125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="22" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="45"/>
+      <c r="G1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="45"/>
+      <c r="K1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="45"/>
+      <c r="O1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="45"/>
+      <c r="S1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>100000</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="27">
+        <v>56972022</v>
+      </c>
+      <c r="D2" s="27">
+        <v>16047530</v>
+      </c>
+      <c r="E2" s="30">
+        <f>D2/C2</f>
+        <v>0.28167387143113859</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="27">
+        <v>9186231</v>
+      </c>
+      <c r="H2" s="27">
+        <v>13447904</v>
+      </c>
+      <c r="I2" s="30">
+        <f>H2/G2</f>
+        <v>1.4639196423429806</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1">
+        <v>109474690</v>
+      </c>
+      <c r="L2" s="1">
+        <v>17963743</v>
+      </c>
+      <c r="M2" s="1">
+        <f>L2/K2</f>
+        <v>0.16409037559275116</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1">
+        <v>7536863</v>
+      </c>
+      <c r="P2" s="1">
+        <v>12702911</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>P2/O2</f>
+        <v>1.6854374293389702</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1">
+        <v>7441475</v>
+      </c>
+      <c r="T2" s="1">
+        <v>15783100</v>
+      </c>
+      <c r="U2" s="1">
+        <f>T2/S2</f>
+        <v>2.1209639218031371</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2">
+        <v>9794180</v>
+      </c>
+      <c r="X2">
+        <v>16213553</v>
+      </c>
+      <c r="Y2">
+        <f>X2/W2</f>
+        <v>1.6554273047871286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>120000</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="28">
+        <v>57046278</v>
+      </c>
+      <c r="D3" s="28">
+        <v>18090524</v>
+      </c>
+      <c r="E3" s="31">
+        <f>D3/C3</f>
+        <v>0.31712014585771925</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="28">
+        <v>17480162</v>
+      </c>
+      <c r="H3" s="28">
+        <v>20172157</v>
+      </c>
+      <c r="I3" s="31">
+        <f>H3/G3</f>
+        <v>1.1540028633601909</v>
+      </c>
+      <c r="J3" s="38"/>
+      <c r="K3" s="1">
+        <v>243893958</v>
+      </c>
+      <c r="L3" s="1">
+        <v>21266705</v>
+      </c>
+      <c r="M3" s="1">
+        <f>L3/K3</f>
+        <v>8.7196522514920188E-2</v>
+      </c>
+      <c r="N3" s="38"/>
+      <c r="O3" s="1">
+        <v>9660153</v>
+      </c>
+      <c r="P3" s="1">
+        <v>15553686</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>P3/O3</f>
+        <v>1.6100869209835496</v>
+      </c>
+      <c r="R3" s="38"/>
+      <c r="S3" s="1">
+        <v>9948732</v>
+      </c>
+      <c r="T3" s="1">
+        <v>19078817</v>
+      </c>
+      <c r="U3" s="1">
+        <f>T3/S3</f>
+        <v>1.917713433229481</v>
+      </c>
+      <c r="V3" s="38"/>
+      <c r="W3">
+        <v>14082415</v>
+      </c>
+      <c r="X3">
+        <v>17158982</v>
+      </c>
+      <c r="Y3">
+        <f>X3/W3</f>
+        <v>1.2184687072494313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>140000</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="28">
+        <v>35004998</v>
+      </c>
+      <c r="D4" s="28">
+        <v>21174939</v>
+      </c>
+      <c r="E4" s="31">
+        <f>D4/C4</f>
+        <v>0.60491187572700333</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="28">
+        <v>11261224</v>
+      </c>
+      <c r="H4" s="28">
+        <v>19794227</v>
+      </c>
+      <c r="I4" s="31">
+        <f>H4/G4</f>
+        <v>1.7577331735875248</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="1">
+        <v>311301915</v>
+      </c>
+      <c r="L4" s="1">
+        <v>22708996</v>
+      </c>
+      <c r="M4" s="1">
+        <f>L4/K4</f>
+        <v>7.2948462266928235E-2</v>
+      </c>
+      <c r="N4" s="38"/>
+      <c r="O4" s="1">
+        <v>12421577</v>
+      </c>
+      <c r="P4" s="1">
+        <v>18062754</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>P4/O4</f>
+        <v>1.4541433829215082</v>
+      </c>
+      <c r="R4" s="38"/>
+      <c r="S4" s="1">
+        <v>9447039</v>
+      </c>
+      <c r="T4" s="1">
+        <v>23926099</v>
+      </c>
+      <c r="U4" s="1">
+        <f>T4/S4</f>
+        <v>2.532655893555642</v>
+      </c>
+      <c r="V4" s="38"/>
+      <c r="W4">
+        <v>38880893</v>
+      </c>
+      <c r="X4">
+        <v>19549720</v>
+      </c>
+      <c r="Y4">
+        <f>X4/W4</f>
+        <v>0.50281046785628103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>160000</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="28">
+        <v>18122522</v>
+      </c>
+      <c r="D5" s="28">
+        <v>24349308</v>
+      </c>
+      <c r="E5" s="31">
+        <f>D5/C5</f>
+        <v>1.3435937889880889</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="28">
+        <v>13623587</v>
+      </c>
+      <c r="H5" s="28">
+        <v>24130157</v>
+      </c>
+      <c r="I5" s="31">
+        <f>H5/G5</f>
+        <v>1.7712043825168804</v>
+      </c>
+      <c r="J5" s="38"/>
+      <c r="K5" s="1">
+        <v>75437457</v>
+      </c>
+      <c r="L5" s="1">
+        <v>28783042</v>
+      </c>
+      <c r="M5" s="1">
+        <f>L5/K5</f>
+        <v>0.38154841301185433</v>
+      </c>
+      <c r="N5" s="38"/>
+      <c r="O5" s="1">
+        <v>14678288</v>
+      </c>
+      <c r="P5" s="1">
+        <v>21301117</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>P5/O5</f>
+        <v>1.4511990090397464</v>
+      </c>
+      <c r="R5" s="38"/>
+      <c r="S5" s="1">
+        <v>14015402</v>
+      </c>
+      <c r="T5" s="1">
+        <v>22941429</v>
+      </c>
+      <c r="U5" s="1">
+        <f>T5/S5</f>
+        <v>1.6368727061842394</v>
+      </c>
+      <c r="V5" s="38"/>
+      <c r="W5">
+        <v>31472019</v>
+      </c>
+      <c r="X5">
+        <v>23544547</v>
+      </c>
+      <c r="Y5">
+        <f>X5/W5</f>
+        <v>0.74811047235323547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>180000</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="28">
+        <v>24986235</v>
+      </c>
+      <c r="D6" s="28">
+        <v>26604813</v>
+      </c>
+      <c r="E6" s="31">
+        <f>D6/C6</f>
+        <v>1.0647787872002326</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="28">
+        <v>16551637</v>
+      </c>
+      <c r="H6" s="28">
+        <v>25297756</v>
+      </c>
+      <c r="I6" s="31">
+        <f>H6/G6</f>
+        <v>1.5284141381302647</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="1">
+        <v>404610744</v>
+      </c>
+      <c r="L6" s="1">
+        <v>37806872</v>
+      </c>
+      <c r="M6" s="1">
+        <f>L6/K6</f>
+        <v>9.3440108945797046E-2</v>
+      </c>
+      <c r="N6" s="38"/>
+      <c r="O6" s="1">
+        <v>11286580</v>
+      </c>
+      <c r="P6" s="1">
+        <v>23944211</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>P6/O6</f>
+        <v>2.1214762133436347</v>
+      </c>
+      <c r="R6" s="38"/>
+      <c r="S6" s="1">
+        <v>11843211</v>
+      </c>
+      <c r="T6" s="1">
+        <v>27506774</v>
+      </c>
+      <c r="U6" s="1">
+        <f>T6/S6</f>
+        <v>2.3225773820967981</v>
+      </c>
+      <c r="V6" s="38"/>
+      <c r="W6">
+        <v>16665741</v>
+      </c>
+      <c r="X6">
+        <v>28710595</v>
+      </c>
+      <c r="Y6">
+        <f>X6/W6</f>
+        <v>1.722731380500873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>200000</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="28">
+        <v>42102353</v>
+      </c>
+      <c r="D7" s="28">
+        <v>36311453</v>
+      </c>
+      <c r="E7" s="31">
+        <f>D7/C7</f>
+        <v>0.86245661851725963</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="28">
+        <v>13816778</v>
+      </c>
+      <c r="H7" s="28">
+        <v>37585910</v>
+      </c>
+      <c r="I7" s="31">
+        <f>H7/G7</f>
+        <v>2.7203093224773531</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="1">
+        <v>41348304</v>
+      </c>
+      <c r="L7" s="1">
+        <v>38938247</v>
+      </c>
+      <c r="M7" s="1">
+        <f>L7/K7</f>
+        <v>0.94171328042862412</v>
+      </c>
+      <c r="N7" s="38"/>
+      <c r="O7" s="1">
+        <v>24709126</v>
+      </c>
+      <c r="P7" s="1">
+        <v>26906674</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>P7/O7</f>
+        <v>1.0889366948875487</v>
+      </c>
+      <c r="R7" s="38"/>
+      <c r="S7" s="1">
+        <v>12547754</v>
+      </c>
+      <c r="T7" s="1">
+        <v>29185724</v>
+      </c>
+      <c r="U7" s="1">
+        <f>T7/S7</f>
+        <v>2.32597196279111</v>
+      </c>
+      <c r="V7" s="38"/>
+      <c r="W7">
+        <v>17934160</v>
+      </c>
+      <c r="X7">
+        <v>27664949</v>
+      </c>
+      <c r="Y7">
+        <f>X7/W7</f>
+        <v>1.5425840407356688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>220000</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="28">
+        <v>35094349</v>
+      </c>
+      <c r="D8" s="28">
+        <v>38987751</v>
+      </c>
+      <c r="E8" s="31">
+        <f>D8/C8</f>
+        <v>1.1109409950872717</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="28">
+        <v>52477312</v>
+      </c>
+      <c r="H8" s="28">
+        <v>38880893</v>
+      </c>
+      <c r="I8" s="31">
+        <f>H8/G8</f>
+        <v>0.74090862352096087</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="1">
+        <v>37212205</v>
+      </c>
+      <c r="L8" s="1">
+        <v>84022985</v>
+      </c>
+      <c r="M8" s="1">
+        <f>L8/K8</f>
+        <v>2.2579415812634593</v>
+      </c>
+      <c r="N8" s="38"/>
+      <c r="O8" s="1">
+        <v>14244213</v>
+      </c>
+      <c r="P8" s="1">
+        <v>29875174</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>P8/O8</f>
+        <v>2.097355185576065</v>
+      </c>
+      <c r="R8" s="38"/>
+      <c r="S8" s="1">
+        <v>25059286</v>
+      </c>
+      <c r="T8" s="1">
+        <v>36301793</v>
+      </c>
+      <c r="U8" s="1">
+        <f>T8/S8</f>
+        <v>1.4486363657767425</v>
+      </c>
+      <c r="V8" s="38"/>
+      <c r="W8">
+        <v>18478717</v>
+      </c>
+      <c r="X8">
+        <v>32636598</v>
+      </c>
+      <c r="Y8">
+        <f>X8/W8</f>
+        <v>1.7661722943210829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>240000</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="28">
+        <v>40071432</v>
+      </c>
+      <c r="D9" s="28">
+        <v>44249187</v>
+      </c>
+      <c r="E9" s="31">
+        <f>D9/C9</f>
+        <v>1.1042576916143152</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="28">
+        <v>22864153</v>
+      </c>
+      <c r="H9" s="28">
+        <v>39784664</v>
+      </c>
+      <c r="I9" s="31">
+        <f>H9/G9</f>
+        <v>1.7400453889544913</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="1">
+        <v>258269781</v>
+      </c>
+      <c r="L9" s="1">
+        <v>48826606</v>
+      </c>
+      <c r="M9" s="1">
+        <f>L9/K9</f>
+        <v>0.18905272545222779</v>
+      </c>
+      <c r="N9" s="38"/>
+      <c r="O9" s="1">
+        <v>16112732</v>
+      </c>
+      <c r="P9" s="1">
+        <v>39487633</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>P9/O9</f>
+        <v>2.4507099727097801</v>
+      </c>
+      <c r="R9" s="38"/>
+      <c r="S9" s="1">
+        <v>20707055</v>
+      </c>
+      <c r="T9" s="1">
+        <v>38885723</v>
+      </c>
+      <c r="U9" s="1">
+        <f>T9/S9</f>
+        <v>1.8778973156733296</v>
+      </c>
+      <c r="V9" s="38"/>
+      <c r="W9">
+        <v>25130525</v>
+      </c>
+      <c r="X9">
+        <v>37357702</v>
+      </c>
+      <c r="Y9">
+        <f>X9/W9</f>
+        <v>1.4865468190576998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>260000</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="28">
+        <v>66563953</v>
+      </c>
+      <c r="D10" s="28">
+        <v>49079566</v>
+      </c>
+      <c r="E10" s="31">
+        <f>D10/C10</f>
+        <v>0.73732949724304986</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="28">
+        <v>27303320</v>
+      </c>
+      <c r="H10" s="28">
+        <v>57817835</v>
+      </c>
+      <c r="I10" s="31">
+        <f>H10/G10</f>
+        <v>2.1176118874920706</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="1">
+        <v>31655550</v>
+      </c>
+      <c r="L10" s="1">
+        <v>46492618</v>
+      </c>
+      <c r="M10" s="1">
+        <f>L10/K10</f>
+        <v>1.4687035290809984</v>
+      </c>
+      <c r="N10" s="38"/>
+      <c r="O10" s="1">
+        <v>17647392</v>
+      </c>
+      <c r="P10" s="1">
+        <v>35667281</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>P10/O10</f>
+        <v>2.0211077648187334</v>
+      </c>
+      <c r="R10" s="38"/>
+      <c r="S10" s="1">
+        <v>26106139</v>
+      </c>
+      <c r="T10" s="1">
+        <v>43939478</v>
+      </c>
+      <c r="U10" s="1">
+        <f>T10/S10</f>
+        <v>1.6831090189169682</v>
+      </c>
+      <c r="V10" s="38"/>
+      <c r="W10">
+        <v>24056504</v>
+      </c>
+      <c r="X10">
+        <v>37167531</v>
+      </c>
+      <c r="Y10">
+        <f>X10/W10</f>
+        <v>1.5450096572635825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>280000</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="28">
+        <v>36983999</v>
+      </c>
+      <c r="D11" s="28">
+        <v>56467309</v>
+      </c>
+      <c r="E11" s="31">
+        <f>D11/C11</f>
+        <v>1.5268037672183583</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="28">
+        <v>19278649</v>
+      </c>
+      <c r="H11" s="28">
+        <v>43975702</v>
+      </c>
+      <c r="I11" s="31">
+        <f>H11/G11</f>
+        <v>2.2810572462831811</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="1">
+        <v>43254254</v>
+      </c>
+      <c r="L11" s="1">
+        <v>72115780</v>
+      </c>
+      <c r="M11" s="1">
+        <f>L11/K11</f>
+        <v>1.6672528903168691</v>
+      </c>
+      <c r="N11" s="38"/>
+      <c r="O11" s="1">
+        <v>20387686</v>
+      </c>
+      <c r="P11" s="1">
+        <v>38412404</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>P11/O11</f>
+        <v>1.8840982738305858</v>
+      </c>
+      <c r="R11" s="38"/>
+      <c r="S11" s="1">
+        <v>17817642</v>
+      </c>
+      <c r="T11" s="1">
+        <v>41350718</v>
+      </c>
+      <c r="U11" s="1">
+        <f>T11/S11</f>
+        <v>2.3207738712002408</v>
+      </c>
+      <c r="V11" s="38"/>
+      <c r="W11">
+        <v>39148342</v>
+      </c>
+      <c r="X11">
+        <v>43717912</v>
+      </c>
+      <c r="Y11">
+        <f>X11/W11</f>
+        <v>1.1167244835043078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>300000</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="28">
+        <v>51690662</v>
+      </c>
+      <c r="D12" s="28">
+        <v>62261832</v>
+      </c>
+      <c r="E12" s="31">
+        <f>D12/C12</f>
+        <v>1.2045083113851396</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="28">
+        <v>20758975</v>
+      </c>
+      <c r="H12" s="28">
+        <v>43764398</v>
+      </c>
+      <c r="I12" s="31">
+        <f>H12/G12</f>
+        <v>2.1082157476464998</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="1">
+        <v>164505745</v>
+      </c>
+      <c r="L12" s="1">
+        <v>70064333</v>
+      </c>
+      <c r="M12" s="1">
+        <f>L12/K12</f>
+        <v>0.42590812254003652</v>
+      </c>
+      <c r="N12" s="38"/>
+      <c r="O12" s="1">
+        <v>18556597</v>
+      </c>
+      <c r="P12" s="1">
+        <v>41778154</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>P12/O12</f>
+        <v>2.2513909204365432</v>
+      </c>
+      <c r="R12" s="38"/>
+      <c r="S12" s="1">
+        <v>29851629</v>
+      </c>
+      <c r="T12" s="1">
+        <v>45848446</v>
+      </c>
+      <c r="U12" s="1">
+        <f>T12/S12</f>
+        <v>1.5358775227978345</v>
+      </c>
+      <c r="V12" s="38"/>
+      <c r="W12">
+        <v>23437689</v>
+      </c>
+      <c r="X12">
+        <v>45876217</v>
+      </c>
+      <c r="Y12">
+        <f>X12/W12</f>
+        <v>1.9573694744392247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>320000</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="28">
+        <v>56284985</v>
+      </c>
+      <c r="D13" s="28">
+        <v>56062212</v>
+      </c>
+      <c r="E13" s="31">
+        <f>D13/C13</f>
+        <v>0.99604205277837421</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="28">
+        <v>21126642</v>
+      </c>
+      <c r="H13" s="28">
+        <v>52497839</v>
+      </c>
+      <c r="I13" s="31">
+        <f>H13/G13</f>
+        <v>2.4849116579908914</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="1">
+        <v>35329197</v>
+      </c>
+      <c r="L13" s="1">
+        <v>59341025</v>
+      </c>
+      <c r="M13" s="1">
+        <f>L13/K13</f>
+        <v>1.679659602792557</v>
+      </c>
+      <c r="N13" s="38"/>
+      <c r="O13" s="1">
+        <v>52529836</v>
+      </c>
+      <c r="P13" s="1">
+        <v>53613517</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>P13/O13</f>
+        <v>1.0206298188328629</v>
+      </c>
+      <c r="R13" s="38"/>
+      <c r="S13" s="1">
+        <v>18830084</v>
+      </c>
+      <c r="T13" s="1">
+        <v>45069646</v>
+      </c>
+      <c r="U13" s="1">
+        <f>T13/S13</f>
+        <v>2.3934915000910246</v>
+      </c>
+      <c r="V13" s="38"/>
+      <c r="W13">
+        <v>24534651</v>
+      </c>
+      <c r="X13">
+        <v>48361740</v>
+      </c>
+      <c r="Y13">
+        <f>X13/W13</f>
+        <v>1.9711607065452041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>340000</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="28">
+        <v>36380881</v>
+      </c>
+      <c r="D14" s="28">
+        <v>59098933</v>
+      </c>
+      <c r="E14" s="31">
+        <f>D14/C14</f>
+        <v>1.62445029849607</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="28">
+        <v>20986579</v>
+      </c>
+      <c r="H14" s="28">
+        <v>53009795</v>
+      </c>
+      <c r="I14" s="31">
+        <f>H14/G14</f>
+        <v>2.5258902368032445</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="1">
+        <v>109406469</v>
+      </c>
+      <c r="L14" s="1">
+        <v>82747925</v>
+      </c>
+      <c r="M14" s="1">
+        <f>L14/K14</f>
+        <v>0.75633484707380516</v>
+      </c>
+      <c r="N14" s="38"/>
+      <c r="O14" s="1">
+        <v>27502548</v>
+      </c>
+      <c r="P14" s="1">
+        <v>54916952</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>P14/O14</f>
+        <v>1.996795060588568</v>
+      </c>
+      <c r="R14" s="38"/>
+      <c r="S14" s="1">
+        <v>55987351</v>
+      </c>
+      <c r="T14" s="1">
+        <v>56249366</v>
+      </c>
+      <c r="U14" s="1">
+        <f>T14/S14</f>
+        <v>1.004679896357304</v>
+      </c>
+      <c r="V14" s="38"/>
+      <c r="W14">
+        <v>25792808</v>
+      </c>
+      <c r="X14">
+        <v>55681867</v>
+      </c>
+      <c r="Y14">
+        <f>X14/W14</f>
+        <v>2.1588136894594805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>360000</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="28">
+        <v>30492178</v>
+      </c>
+      <c r="D15" s="28">
+        <v>57956691</v>
+      </c>
+      <c r="E15" s="31">
+        <f>D15/C15</f>
+        <v>1.9007068304533707</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="28">
+        <v>29433854</v>
+      </c>
+      <c r="H15" s="28">
+        <v>54654333</v>
+      </c>
+      <c r="I15" s="31">
+        <f>H15/G15</f>
+        <v>1.8568527587314934</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="1">
+        <v>158426266</v>
+      </c>
+      <c r="L15" s="1">
+        <v>75132577</v>
+      </c>
+      <c r="M15" s="1">
+        <f>L15/K15</f>
+        <v>0.47424318515466368</v>
+      </c>
+      <c r="N15" s="38"/>
+      <c r="O15" s="1">
+        <v>29284735</v>
+      </c>
+      <c r="P15" s="1">
+        <v>64441268</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>P15/O15</f>
+        <v>2.200507124274814</v>
+      </c>
+      <c r="R15" s="38"/>
+      <c r="S15" s="1">
+        <v>23270458</v>
+      </c>
+      <c r="T15" s="1">
+        <v>53974542</v>
+      </c>
+      <c r="U15" s="1">
+        <f>T15/S15</f>
+        <v>2.3194447655478032</v>
+      </c>
+      <c r="V15" s="38"/>
+      <c r="W15">
+        <v>43667803</v>
+      </c>
+      <c r="X15">
+        <v>54155055</v>
+      </c>
+      <c r="Y15">
+        <f>X15/W15</f>
+        <v>1.2401598266805407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>380000</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="28">
+        <v>47954229</v>
+      </c>
+      <c r="D16" s="28">
+        <v>76544079</v>
+      </c>
+      <c r="E16" s="31">
+        <f>D16/C16</f>
+        <v>1.5961903797890276</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="28">
+        <v>29059546</v>
+      </c>
+      <c r="H16" s="28">
+        <v>58422161</v>
+      </c>
+      <c r="I16" s="31">
+        <f>H16/G16</f>
+        <v>2.0104292407045863</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="1">
+        <v>94514463</v>
+      </c>
+      <c r="L16" s="1">
+        <v>84879667</v>
+      </c>
+      <c r="M16" s="1">
+        <f>L16/K16</f>
+        <v>0.89806008843323804</v>
+      </c>
+      <c r="N16" s="38"/>
+      <c r="O16" s="1">
+        <v>30215674</v>
+      </c>
+      <c r="P16" s="1">
+        <v>63122739</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>P16/O16</f>
+        <v>2.0890726779750137</v>
+      </c>
+      <c r="R16" s="38"/>
+      <c r="S16" s="1">
+        <v>23461234</v>
+      </c>
+      <c r="T16" s="1">
+        <v>58232592</v>
+      </c>
+      <c r="U16" s="1">
+        <f>T16/S16</f>
+        <v>2.4820771149548229</v>
+      </c>
+      <c r="V16" s="38"/>
+      <c r="W16">
+        <v>29234022</v>
+      </c>
+      <c r="X16">
+        <v>56691290</v>
+      </c>
+      <c r="Y16">
+        <f>X16/W16</f>
+        <v>1.9392230737186966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>400000</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="28">
+        <v>48804872</v>
+      </c>
+      <c r="D17" s="28">
+        <v>71405803</v>
+      </c>
+      <c r="E17" s="31">
+        <f>D17/C17</f>
+        <v>1.4630875991233006</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="28">
+        <v>24621587</v>
+      </c>
+      <c r="H17" s="28">
+        <v>61722708</v>
+      </c>
+      <c r="I17" s="31">
+        <f>H17/G17</f>
+        <v>2.5068533559595489</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="1">
+        <v>48592966</v>
+      </c>
+      <c r="L17" s="1">
+        <v>75054697</v>
+      </c>
+      <c r="M17" s="1">
+        <f>L17/K17</f>
+        <v>1.5445588771016776</v>
+      </c>
+      <c r="N17" s="38"/>
+      <c r="O17" s="1">
+        <v>32789944</v>
+      </c>
+      <c r="P17" s="1">
+        <v>56783056</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>P17/O17</f>
+        <v>1.7317216522236207</v>
+      </c>
+      <c r="R17" s="38"/>
+      <c r="S17" s="1">
+        <v>25430575</v>
+      </c>
+      <c r="T17" s="1">
+        <v>59702655</v>
+      </c>
+      <c r="U17" s="1">
+        <f>T17/S17</f>
+        <v>2.3476722409933712</v>
+      </c>
+      <c r="V17" s="38"/>
+      <c r="W17">
+        <v>34845012</v>
+      </c>
+      <c r="X17">
+        <v>61609208</v>
+      </c>
+      <c r="Y17">
+        <f>X17/W17</f>
+        <v>1.7680926038998064</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>420000</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="28">
+        <v>66094861</v>
+      </c>
+      <c r="D18" s="28">
+        <v>71492135</v>
+      </c>
+      <c r="E18" s="31">
+        <f>D18/C18</f>
+        <v>1.0816595105631586</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="28">
+        <v>36132147</v>
+      </c>
+      <c r="H18" s="28">
+        <v>90188796</v>
+      </c>
+      <c r="I18" s="31">
+        <f>H18/G18</f>
+        <v>2.4960818409157919</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="1">
+        <v>45151751</v>
+      </c>
+      <c r="L18" s="1">
+        <v>112283807</v>
+      </c>
+      <c r="M18" s="1">
+        <f>L18/K18</f>
+        <v>2.4868095813161264</v>
+      </c>
+      <c r="N18" s="38"/>
+      <c r="O18" s="1">
+        <v>32233312</v>
+      </c>
+      <c r="P18" s="1">
+        <v>67916291</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>P18/O18</f>
+        <v>2.1070217978220791</v>
+      </c>
+      <c r="R18" s="38"/>
+      <c r="S18" s="1">
+        <v>23534888</v>
+      </c>
+      <c r="T18" s="1">
+        <v>69549357</v>
+      </c>
+      <c r="U18" s="1">
+        <f>T18/S18</f>
+        <v>2.9551598885875303</v>
+      </c>
+      <c r="V18" s="38"/>
+      <c r="W18">
+        <v>30321928</v>
+      </c>
+      <c r="X18">
+        <v>63403470</v>
+      </c>
+      <c r="Y18">
+        <f>X18/W18</f>
+        <v>2.0910105056644155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>440000</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="28">
+        <v>31920584</v>
+      </c>
+      <c r="D19" s="28">
+        <v>72407377</v>
+      </c>
+      <c r="E19" s="31">
+        <f>D19/C19</f>
+        <v>2.2683600337637935</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="28">
+        <v>256312515</v>
+      </c>
+      <c r="H19" s="28">
+        <v>70687977</v>
+      </c>
+      <c r="I19" s="31">
+        <f>H19/G19</f>
+        <v>0.27578823843229039</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="1">
+        <v>40030983</v>
+      </c>
+      <c r="L19" s="1">
+        <v>99899058</v>
+      </c>
+      <c r="M19" s="1">
+        <f>L19/K19</f>
+        <v>2.4955434644210461</v>
+      </c>
+      <c r="N19" s="38"/>
+      <c r="O19" s="1">
+        <v>34480365</v>
+      </c>
+      <c r="P19" s="1">
+        <v>71658761</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>P19/O19</f>
+        <v>2.078248330607869</v>
+      </c>
+      <c r="R19" s="38"/>
+      <c r="S19" s="1">
+        <v>37209791</v>
+      </c>
+      <c r="T19" s="1">
+        <v>67825128</v>
+      </c>
+      <c r="U19" s="1">
+        <f>T19/S19</f>
+        <v>1.8227763762500038</v>
+      </c>
+      <c r="V19" s="38"/>
+      <c r="W19">
+        <v>48635830</v>
+      </c>
+      <c r="X19">
+        <v>68410739</v>
+      </c>
+      <c r="Y19">
+        <f>X19/W19</f>
+        <v>1.4065913751240597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>460000</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="28">
+        <v>34426030</v>
+      </c>
+      <c r="D20" s="28">
+        <v>76765645</v>
+      </c>
+      <c r="E20" s="31">
+        <f>D20/C20</f>
+        <v>2.2298721345447037</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="28">
+        <v>28505933</v>
+      </c>
+      <c r="H20" s="28">
+        <v>70124705</v>
+      </c>
+      <c r="I20" s="31">
+        <f>H20/G20</f>
+        <v>2.4600038525313308</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="1">
+        <v>94243995</v>
+      </c>
+      <c r="L20" s="1">
+        <v>68010471</v>
+      </c>
+      <c r="M20" s="1">
+        <f>L20/K20</f>
+        <v>0.72164248767255679</v>
+      </c>
+      <c r="N20" s="38"/>
+      <c r="O20" s="1">
+        <v>27783882</v>
+      </c>
+      <c r="P20" s="1">
+        <v>65267763</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>P20/O20</f>
+        <v>2.349123243469001</v>
+      </c>
+      <c r="R20" s="38"/>
+      <c r="S20" s="1">
+        <v>28364059</v>
+      </c>
+      <c r="T20" s="1">
+        <v>69664065</v>
+      </c>
+      <c r="U20" s="1">
+        <f>T20/S20</f>
+        <v>2.4560682587777722</v>
+      </c>
+      <c r="V20" s="38"/>
+      <c r="W20">
+        <v>37060672</v>
+      </c>
+      <c r="X20">
+        <v>69222744</v>
+      </c>
+      <c r="Y20">
+        <f>X20/W20</f>
+        <v>1.8678221485028659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>480000</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="28">
+        <v>38593521</v>
+      </c>
+      <c r="D21" s="28">
+        <v>91842390</v>
+      </c>
+      <c r="E21" s="31">
+        <f>D21/C21</f>
+        <v>2.379735966562885</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="28">
+        <v>66761371</v>
+      </c>
+      <c r="H21" s="28">
+        <v>74321175</v>
+      </c>
+      <c r="I21" s="31">
+        <f>H21/G21</f>
+        <v>1.1132362006166709</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="1">
+        <v>40797709</v>
+      </c>
+      <c r="L21" s="1">
+        <v>86177668</v>
+      </c>
+      <c r="M21" s="1">
+        <f>L21/K21</f>
+        <v>2.1123163558032143</v>
+      </c>
+      <c r="N21" s="38"/>
+      <c r="O21" s="1">
+        <v>30305628</v>
+      </c>
+      <c r="P21" s="1">
+        <v>68590044</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>P21/O21</f>
+        <v>2.263277434805179</v>
+      </c>
+      <c r="R21" s="38"/>
+      <c r="S21" s="1">
+        <v>35472883</v>
+      </c>
+      <c r="T21" s="1">
+        <v>76199957</v>
+      </c>
+      <c r="U21" s="1">
+        <f>T21/S21</f>
+        <v>2.1481185219707122</v>
+      </c>
+      <c r="V21" s="38"/>
+      <c r="W21">
+        <v>103400041</v>
+      </c>
+      <c r="X21">
+        <v>89606205</v>
+      </c>
+      <c r="Y21">
+        <f>X21/W21</f>
+        <v>0.86659738365094074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>500000</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="28">
+        <v>83041333</v>
+      </c>
+      <c r="D22" s="28">
+        <v>85239484</v>
+      </c>
+      <c r="E22" s="31">
+        <f>D22/C22</f>
+        <v>1.0264705649655215</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="28">
+        <v>36156900</v>
+      </c>
+      <c r="H22" s="28">
+        <v>81349101</v>
+      </c>
+      <c r="I22" s="31">
+        <f>H22/G22</f>
+        <v>2.2498914729968553</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="1">
+        <v>64403233</v>
+      </c>
+      <c r="L22" s="1">
+        <v>107058595</v>
+      </c>
+      <c r="M22" s="1">
+        <f>L22/K22</f>
+        <v>1.6623170920627541</v>
+      </c>
+      <c r="N22" s="38"/>
+      <c r="O22" s="1">
+        <v>47118073</v>
+      </c>
+      <c r="P22" s="1">
+        <v>82055455</v>
+      </c>
+      <c r="Q22" s="1">
+        <f>P22/O22</f>
+        <v>1.7414857988780654</v>
+      </c>
+      <c r="R22" s="38"/>
+      <c r="S22" s="1">
+        <v>28055557</v>
+      </c>
+      <c r="T22" s="1">
+        <v>76289309</v>
+      </c>
+      <c r="U22" s="1">
+        <f>T22/S22</f>
+        <v>2.7192227550499175</v>
+      </c>
+      <c r="V22" s="38"/>
+      <c r="W22">
+        <v>72113968</v>
+      </c>
+      <c r="X22">
+        <v>95639801</v>
+      </c>
+      <c r="Y22">
+        <f>X22/W22</f>
+        <v>1.3262312926671849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="V23" s="39"/>
+    </row>
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>100000</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="27">
+        <v>23251743</v>
+      </c>
+      <c r="D24" s="27">
+        <v>17488010</v>
+      </c>
+      <c r="E24" s="30">
+        <f>D24/C24</f>
+        <v>0.75211608867343838</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="27">
+        <v>11141082</v>
+      </c>
+      <c r="H24" s="27">
+        <v>13227545</v>
+      </c>
+      <c r="I24" s="30">
+        <f>H24/G24</f>
+        <v>1.1872765140764605</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24">
+        <v>35404059</v>
+      </c>
+      <c r="L24">
+        <v>19739893</v>
+      </c>
+      <c r="M24">
+        <f>L24/K24</f>
+        <v>0.55756016562959632</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24">
+        <v>7280885</v>
+      </c>
+      <c r="P24">
+        <v>13990650</v>
+      </c>
+      <c r="Q24">
+        <f>P24/O24</f>
+        <v>1.9215589863045495</v>
+      </c>
+      <c r="R24" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24">
+        <v>12436669</v>
+      </c>
+      <c r="T24">
+        <v>18283715</v>
+      </c>
+      <c r="U24">
+        <f>T24/S24</f>
+        <v>1.4701456636017249</v>
+      </c>
+      <c r="V24" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="W24">
+        <v>11316766</v>
+      </c>
+      <c r="X24">
+        <v>15585079</v>
+      </c>
+      <c r="Y24">
+        <f>X24/W24</f>
+        <v>1.3771672048357277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>120000</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="28">
+        <v>33333897</v>
+      </c>
+      <c r="D25" s="28">
+        <v>20400968</v>
+      </c>
+      <c r="E25" s="31">
+        <f>D25/C25</f>
+        <v>0.61201869076393922</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="28">
+        <v>13074804</v>
+      </c>
+      <c r="H25" s="28">
+        <v>16182160</v>
+      </c>
+      <c r="I25" s="31">
+        <f>H25/G25</f>
+        <v>1.2376598532566914</v>
+      </c>
+      <c r="J25" s="38"/>
+      <c r="K25">
+        <v>17105250</v>
+      </c>
+      <c r="L25">
+        <v>21169505</v>
+      </c>
+      <c r="M25">
+        <f>L25/K25</f>
+        <v>1.2376027827713714</v>
+      </c>
+      <c r="N25" s="38"/>
+      <c r="O25">
+        <v>11482185</v>
+      </c>
+      <c r="P25">
+        <v>16539563</v>
+      </c>
+      <c r="Q25">
+        <f>P25/O25</f>
+        <v>1.4404543211940932</v>
+      </c>
+      <c r="R25" s="38"/>
+      <c r="S25">
+        <v>12426406</v>
+      </c>
+      <c r="T25">
+        <v>19019049</v>
+      </c>
+      <c r="U25">
+        <f>T25/S25</f>
+        <v>1.5305349752776467</v>
+      </c>
+      <c r="V25" s="38"/>
+      <c r="W25">
+        <v>12106433</v>
+      </c>
+      <c r="X25">
+        <v>15839246</v>
+      </c>
+      <c r="Y25">
+        <f>X25/W25</f>
+        <v>1.3083330160089268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>140000</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="28">
+        <v>12299624</v>
+      </c>
+      <c r="D26" s="28">
+        <v>21636183</v>
+      </c>
+      <c r="E26" s="31">
+        <f>D26/C26</f>
+        <v>1.7590930421938102</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="28">
+        <v>13075407</v>
+      </c>
+      <c r="H26" s="28">
+        <v>18169612</v>
+      </c>
+      <c r="I26" s="31">
+        <f>H26/G26</f>
+        <v>1.3896020215661355</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26">
+        <v>22756691</v>
+      </c>
+      <c r="L26">
+        <v>24092727</v>
+      </c>
+      <c r="M26">
+        <f>L26/K26</f>
+        <v>1.0587095900717727</v>
+      </c>
+      <c r="N26" s="38"/>
+      <c r="O26">
+        <v>9499563</v>
+      </c>
+      <c r="P26">
+        <v>23243894</v>
+      </c>
+      <c r="Q26">
+        <f>P26/O26</f>
+        <v>2.4468382387695096</v>
+      </c>
+      <c r="R26" s="38"/>
+      <c r="S26">
+        <v>10949099</v>
+      </c>
+      <c r="T26">
+        <v>19172998</v>
+      </c>
+      <c r="U26">
+        <f>T26/S26</f>
+        <v>1.7511028076374138</v>
+      </c>
+      <c r="V26" s="38"/>
+      <c r="W26">
+        <v>69585581</v>
+      </c>
+      <c r="X26">
+        <v>18146067</v>
+      </c>
+      <c r="Y26">
+        <f>X26/W26</f>
+        <v>0.26077337774904835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>160000</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="28">
+        <v>31048809</v>
+      </c>
+      <c r="D27" s="28">
+        <v>57118725</v>
+      </c>
+      <c r="E27" s="31">
+        <f>D27/C27</f>
+        <v>1.8396430278533389</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="28">
+        <v>14181426</v>
+      </c>
+      <c r="H27" s="28">
+        <v>20446851</v>
+      </c>
+      <c r="I27" s="31">
+        <f>H27/G27</f>
+        <v>1.4418050060692063</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27">
+        <v>40756657</v>
+      </c>
+      <c r="L27">
+        <v>31161706</v>
+      </c>
+      <c r="M27">
+        <f>L27/K27</f>
+        <v>0.76457953850336646</v>
+      </c>
+      <c r="N27" s="38"/>
+      <c r="O27">
+        <v>10652068</v>
+      </c>
+      <c r="P27">
+        <v>21060836</v>
+      </c>
+      <c r="Q27">
+        <f>P27/O27</f>
+        <v>1.9771593647355612</v>
+      </c>
+      <c r="R27" s="38"/>
+      <c r="S27">
+        <v>13720182</v>
+      </c>
+      <c r="T27">
+        <v>21900613</v>
+      </c>
+      <c r="U27">
+        <f>T27/S27</f>
+        <v>1.5962334173118111</v>
+      </c>
+      <c r="V27" s="38"/>
+      <c r="W27">
+        <v>11433888</v>
+      </c>
+      <c r="X27">
+        <v>21025216</v>
+      </c>
+      <c r="Y27">
+        <f>X27/W27</f>
+        <v>1.8388509665303701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>180000</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="28">
+        <v>50441563</v>
+      </c>
+      <c r="D28" s="28">
+        <v>30346078</v>
+      </c>
+      <c r="E28" s="31">
+        <f>D28/C28</f>
+        <v>0.60160859805236411</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="28">
+        <v>15209564</v>
+      </c>
+      <c r="H28" s="28">
+        <v>23389994</v>
+      </c>
+      <c r="I28" s="31">
+        <f>H28/G28</f>
+        <v>1.5378477647353994</v>
+      </c>
+      <c r="J28" s="38"/>
+      <c r="K28">
+        <v>49315621</v>
+      </c>
+      <c r="L28">
+        <v>33922525</v>
+      </c>
+      <c r="M28">
+        <f>L28/K28</f>
+        <v>0.68786571703112087</v>
+      </c>
+      <c r="N28" s="38"/>
+      <c r="O28">
+        <v>13645924</v>
+      </c>
+      <c r="P28">
+        <v>24221923</v>
+      </c>
+      <c r="Q28">
+        <f>P28/O28</f>
+        <v>1.7750298917097882</v>
+      </c>
+      <c r="R28" s="38"/>
+      <c r="S28">
+        <v>17055745</v>
+      </c>
+      <c r="T28">
+        <v>23816826</v>
+      </c>
+      <c r="U28">
+        <f>T28/S28</f>
+        <v>1.3964107695090422</v>
+      </c>
+      <c r="V28" s="38"/>
+      <c r="W28">
+        <v>14142787</v>
+      </c>
+      <c r="X28">
+        <v>27050964</v>
+      </c>
+      <c r="Y28">
+        <f>X28/W28</f>
+        <v>1.9127039104810106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>200000</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="28">
+        <v>16849272</v>
+      </c>
+      <c r="D29" s="28">
+        <v>33212548</v>
+      </c>
+      <c r="E29" s="31">
+        <f>D29/C29</f>
+        <v>1.9711562612319393</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="28">
+        <v>17347342</v>
+      </c>
+      <c r="H29" s="28">
+        <v>28544572</v>
+      </c>
+      <c r="I29" s="31">
+        <f>H29/G29</f>
+        <v>1.6454723726551306</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29">
+        <v>56682838</v>
+      </c>
+      <c r="L29">
+        <v>36275230</v>
+      </c>
+      <c r="M29">
+        <f>L29/K29</f>
+        <v>0.6399684856993223</v>
+      </c>
+      <c r="N29" s="38"/>
+      <c r="O29">
+        <v>14026269</v>
+      </c>
+      <c r="P29">
+        <v>26892185</v>
+      </c>
+      <c r="Q29">
+        <f>P29/O29</f>
+        <v>1.9172728685012386</v>
+      </c>
+      <c r="R29" s="38"/>
+      <c r="S29">
+        <v>14797825</v>
+      </c>
+      <c r="T29">
+        <v>34061382</v>
+      </c>
+      <c r="U29">
+        <f>T29/S29</f>
+        <v>2.3017829985149842</v>
+      </c>
+      <c r="V29" s="38"/>
+      <c r="W29">
+        <v>16280566</v>
+      </c>
+      <c r="X29">
+        <v>29283527</v>
+      </c>
+      <c r="Y29">
+        <f>X29/W29</f>
+        <v>1.7986799107598592</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>220000</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="28">
+        <v>35108235</v>
+      </c>
+      <c r="D30" s="28">
+        <v>37514067</v>
+      </c>
+      <c r="E30" s="31">
+        <f>D30/C30</f>
+        <v>1.0685261449343721</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="28">
+        <v>18033775</v>
+      </c>
+      <c r="H30" s="28">
+        <v>32721119</v>
+      </c>
+      <c r="I30" s="31">
+        <f>H30/G30</f>
+        <v>1.8144353580989006</v>
+      </c>
+      <c r="J30" s="38"/>
+      <c r="K30">
+        <v>76727610</v>
+      </c>
+      <c r="L30">
+        <v>40462040</v>
+      </c>
+      <c r="M30">
+        <f>L30/K30</f>
+        <v>0.52734654448379148</v>
+      </c>
+      <c r="N30" s="38"/>
+      <c r="O30">
+        <v>15767403</v>
+      </c>
+      <c r="P30">
+        <v>29856459</v>
+      </c>
+      <c r="Q30">
+        <f>P30/O30</f>
+        <v>1.8935559013745002</v>
+      </c>
+      <c r="R30" s="38"/>
+      <c r="S30">
+        <v>21693536</v>
+      </c>
+      <c r="T30">
+        <v>40740356</v>
+      </c>
+      <c r="U30">
+        <f>T30/S30</f>
+        <v>1.8779951779184361</v>
+      </c>
+      <c r="V30" s="38"/>
+      <c r="W30">
+        <v>18475095</v>
+      </c>
+      <c r="X30">
+        <v>33950901</v>
+      </c>
+      <c r="Y30">
+        <f>X30/W30</f>
+        <v>1.8376577224636734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>240000</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="28">
+        <v>15637602</v>
+      </c>
+      <c r="D31" s="28">
+        <v>37014185</v>
+      </c>
+      <c r="E31" s="31">
+        <f>D31/C31</f>
+        <v>2.3669987892005437</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="28">
+        <v>21591508</v>
+      </c>
+      <c r="H31" s="28">
+        <v>37526141</v>
+      </c>
+      <c r="I31" s="31">
+        <f>H31/G31</f>
+        <v>1.7380046358966683</v>
+      </c>
+      <c r="J31" s="38"/>
+      <c r="K31">
+        <v>31191288</v>
+      </c>
+      <c r="L31">
+        <v>40101014</v>
+      </c>
+      <c r="M31">
+        <f>L31/K31</f>
+        <v>1.2856479027092438</v>
+      </c>
+      <c r="N31" s="38"/>
+      <c r="O31">
+        <v>28726292</v>
+      </c>
+      <c r="P31">
+        <v>34389203</v>
+      </c>
+      <c r="Q31">
+        <f>P31/O31</f>
+        <v>1.1971333787180052</v>
+      </c>
+      <c r="R31" s="38"/>
+      <c r="S31">
+        <v>27294263</v>
+      </c>
+      <c r="T31">
+        <v>33015132</v>
+      </c>
+      <c r="U31">
+        <f>T31/S31</f>
+        <v>1.2095996876706288</v>
+      </c>
+      <c r="V31" s="38"/>
+      <c r="W31">
+        <v>18993088</v>
+      </c>
+      <c r="X31">
+        <v>35824853</v>
+      </c>
+      <c r="Y31">
+        <f>X31/W31</f>
+        <v>1.8862047603844092</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>260000</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="28">
+        <v>24811156</v>
+      </c>
+      <c r="D32" s="28">
+        <v>41214278</v>
+      </c>
+      <c r="E32" s="31">
+        <f>D32/C32</f>
+        <v>1.6611188128437062</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="28">
+        <v>24987443</v>
+      </c>
+      <c r="H32" s="28">
+        <v>46312105</v>
+      </c>
+      <c r="I32" s="31">
+        <f>H32/G32</f>
+        <v>1.8534151333531805</v>
+      </c>
+      <c r="J32" s="38"/>
+      <c r="K32">
+        <v>26024637</v>
+      </c>
+      <c r="L32">
+        <v>46866322</v>
+      </c>
+      <c r="M32">
+        <f>L32/K32</f>
+        <v>1.8008444075511985</v>
+      </c>
+      <c r="N32" s="38"/>
+      <c r="O32">
+        <v>37546064</v>
+      </c>
+      <c r="P32">
+        <v>41159339</v>
+      </c>
+      <c r="Q32">
+        <f>P32/O32</f>
+        <v>1.096235786526119</v>
+      </c>
+      <c r="R32" s="38"/>
+      <c r="S32">
+        <v>18073620</v>
+      </c>
+      <c r="T32">
+        <v>37271975</v>
+      </c>
+      <c r="U32">
+        <f>T32/S32</f>
+        <v>2.0622307539939424</v>
+      </c>
+      <c r="V32" s="38"/>
+      <c r="W32">
+        <v>16882477</v>
+      </c>
+      <c r="X32">
+        <v>38759545</v>
+      </c>
+      <c r="Y32">
+        <f>X32/W32</f>
+        <v>2.2958446796640088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>280000</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="28">
+        <v>22668547</v>
+      </c>
+      <c r="D33" s="28">
+        <v>46378515</v>
+      </c>
+      <c r="E33" s="31">
+        <f>D33/C33</f>
+        <v>2.0459412330221252</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="28">
+        <v>102083927</v>
+      </c>
+      <c r="H33" s="28">
+        <v>51810199</v>
+      </c>
+      <c r="I33" s="31">
+        <f>H33/G33</f>
+        <v>0.50752552848011034</v>
+      </c>
+      <c r="J33" s="38"/>
+      <c r="K33">
+        <v>36342846</v>
+      </c>
+      <c r="L33">
+        <v>50468729</v>
+      </c>
+      <c r="M33">
+        <f>L33/K33</f>
+        <v>1.3886840067505997</v>
+      </c>
+      <c r="N33" s="38"/>
+      <c r="O33">
+        <v>22728316</v>
+      </c>
+      <c r="P33">
+        <v>38882704</v>
+      </c>
+      <c r="Q33">
+        <f>P33/O33</f>
+        <v>1.7107604452525211</v>
+      </c>
+      <c r="R33" s="38"/>
+      <c r="S33">
+        <v>32043140</v>
+      </c>
+      <c r="T33">
+        <v>40374500</v>
+      </c>
+      <c r="U33">
+        <f>T33/S33</f>
+        <v>1.2600044814584339</v>
+      </c>
+      <c r="V33" s="38"/>
+      <c r="W33">
+        <v>20096089</v>
+      </c>
+      <c r="X33">
+        <v>40477133</v>
+      </c>
+      <c r="Y33">
+        <f>X33/W33</f>
+        <v>2.0141796247021002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>300000</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="28">
+        <v>24375268</v>
+      </c>
+      <c r="D34" s="28">
+        <v>49694759</v>
+      </c>
+      <c r="E34" s="31">
+        <f>D34/C34</f>
+        <v>2.0387369279385976</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="28">
+        <v>21143546</v>
+      </c>
+      <c r="H34" s="28">
+        <v>49143560</v>
+      </c>
+      <c r="I34" s="31">
+        <f>H34/G34</f>
+        <v>2.3242818399524849</v>
+      </c>
+      <c r="J34" s="38"/>
+      <c r="K34">
+        <v>27813464</v>
+      </c>
+      <c r="L34">
+        <v>52212279</v>
+      </c>
+      <c r="M34">
+        <f>L34/K34</f>
+        <v>1.8772303586493218</v>
+      </c>
+      <c r="N34" s="38"/>
+      <c r="O34">
+        <v>28662901</v>
+      </c>
+      <c r="P34">
+        <v>42166347</v>
+      </c>
+      <c r="Q34">
+        <f>P34/O34</f>
+        <v>1.4711123273949138</v>
+      </c>
+      <c r="R34" s="38"/>
+      <c r="S34">
+        <v>24762255</v>
+      </c>
+      <c r="T34">
+        <v>44514825</v>
+      </c>
+      <c r="U34">
+        <f>T34/S34</f>
+        <v>1.7976886596152086</v>
+      </c>
+      <c r="V34" s="38"/>
+      <c r="W34">
+        <v>20961222</v>
+      </c>
+      <c r="X34">
+        <v>50810436</v>
+      </c>
+      <c r="Y34">
+        <f>X34/W34</f>
+        <v>2.4240206987932287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>320000</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="28">
+        <v>87546305</v>
+      </c>
+      <c r="D35" s="28">
+        <v>47886612</v>
+      </c>
+      <c r="E35" s="31">
+        <f>D35/C35</f>
+        <v>0.54698610066981124</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="28">
+        <v>27957150</v>
+      </c>
+      <c r="H35" s="28">
+        <v>51968374</v>
+      </c>
+      <c r="I35" s="31">
+        <f>H35/G35</f>
+        <v>1.8588580738737674</v>
+      </c>
+      <c r="J35" s="38"/>
+      <c r="K35">
+        <v>31115823</v>
+      </c>
+      <c r="L35">
+        <v>56711817</v>
+      </c>
+      <c r="M35">
+        <f>L35/K35</f>
+        <v>1.8226037922892158</v>
+      </c>
+      <c r="N35" s="38"/>
+      <c r="O35">
+        <v>26409208</v>
+      </c>
+      <c r="P35">
+        <v>48138363</v>
+      </c>
+      <c r="Q35">
+        <f>P35/O35</f>
+        <v>1.8227870748717645</v>
+      </c>
+      <c r="R35" s="38"/>
+      <c r="S35">
+        <v>21075929</v>
+      </c>
+      <c r="T35">
+        <v>45439727</v>
+      </c>
+      <c r="U35">
+        <f>T35/S35</f>
+        <v>2.1560011423458487</v>
+      </c>
+      <c r="V35" s="38"/>
+      <c r="W35">
+        <v>19675294</v>
+      </c>
+      <c r="X35">
+        <v>49625331</v>
+      </c>
+      <c r="Y35">
+        <f>X35/W35</f>
+        <v>2.5222154748996379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>340000</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="28">
+        <v>22481997</v>
+      </c>
+      <c r="D36" s="28">
+        <v>49410406</v>
+      </c>
+      <c r="E36" s="31">
+        <f>D36/C36</f>
+        <v>2.1977765587283016</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="28">
+        <v>23644161</v>
+      </c>
+      <c r="H36" s="28">
+        <v>55501959</v>
+      </c>
+      <c r="I36" s="31">
+        <f>H36/G36</f>
+        <v>2.3473854284785154</v>
+      </c>
+      <c r="J36" s="38"/>
+      <c r="K36">
+        <v>56988925</v>
+      </c>
+      <c r="L36">
+        <v>53294148</v>
+      </c>
+      <c r="M36">
+        <f>L36/K36</f>
+        <v>0.93516675389121662</v>
+      </c>
+      <c r="N36" s="38"/>
+      <c r="O36">
+        <v>20566388</v>
+      </c>
+      <c r="P36">
+        <v>48643074</v>
+      </c>
+      <c r="Q36">
+        <f>P36/O36</f>
+        <v>2.3651734081842664</v>
+      </c>
+      <c r="R36" s="38"/>
+      <c r="S36">
+        <v>32474197</v>
+      </c>
+      <c r="T36">
+        <v>52753817</v>
+      </c>
+      <c r="U36">
+        <f>T36/S36</f>
+        <v>1.6244841096455749</v>
+      </c>
+      <c r="V36" s="38"/>
+      <c r="W36">
+        <v>21634975</v>
+      </c>
+      <c r="X36">
+        <v>60041946</v>
+      </c>
+      <c r="Y36">
+        <f>X36/W36</f>
+        <v>2.7752260402427087</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>360000</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="28">
+        <v>22832156</v>
+      </c>
+      <c r="D37" s="28">
+        <v>52204430</v>
+      </c>
+      <c r="E37" s="31">
+        <f>D37/C37</f>
+        <v>2.2864432951491747</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="28">
+        <v>25835068</v>
+      </c>
+      <c r="H37" s="28">
+        <v>59555951</v>
+      </c>
+      <c r="I37" s="31">
+        <f>H37/G37</f>
+        <v>2.3052368586759671</v>
+      </c>
+      <c r="J37" s="38"/>
+      <c r="K37">
+        <v>27119788</v>
+      </c>
+      <c r="L37">
+        <v>53883381</v>
+      </c>
+      <c r="M37">
+        <f>L37/K37</f>
+        <v>1.9868658634057168</v>
+      </c>
+      <c r="N37" s="38"/>
+      <c r="O37">
+        <v>25864651</v>
+      </c>
+      <c r="P37">
+        <v>60090244</v>
+      </c>
+      <c r="Q37">
+        <f>P37/O37</f>
+        <v>2.3232574837371671</v>
+      </c>
+      <c r="R37" s="38"/>
+      <c r="S37">
+        <v>28905597</v>
+      </c>
+      <c r="T37">
+        <v>54519099</v>
+      </c>
+      <c r="U37">
+        <f>T37/S37</f>
+        <v>1.8861087352736565</v>
+      </c>
+      <c r="V37" s="38"/>
+      <c r="W37">
+        <v>24188718</v>
+      </c>
+      <c r="X37">
+        <v>59653150</v>
+      </c>
+      <c r="Y37">
+        <f>X37/W37</f>
+        <v>2.4661559161589302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <v>380000</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="28">
+        <v>44524484</v>
+      </c>
+      <c r="D38" s="28">
+        <v>54846316</v>
+      </c>
+      <c r="E38" s="31">
+        <f>D38/C38</f>
+        <v>1.2318237309611493</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="28">
+        <v>35176456</v>
+      </c>
+      <c r="H38" s="28">
+        <v>58752396</v>
+      </c>
+      <c r="I38" s="31">
+        <f>H38/G38</f>
+        <v>1.6702193080508168</v>
+      </c>
+      <c r="J38" s="38"/>
+      <c r="K38">
+        <v>29903550</v>
+      </c>
+      <c r="L38">
+        <v>54355491</v>
+      </c>
+      <c r="M38">
+        <f>L38/K38</f>
+        <v>1.8176935848753744</v>
+      </c>
+      <c r="N38" s="38"/>
+      <c r="O38">
+        <v>24318519</v>
+      </c>
+      <c r="P38">
+        <v>53487338</v>
+      </c>
+      <c r="Q38">
+        <f>P38/O38</f>
+        <v>2.1994488233432308</v>
+      </c>
+      <c r="R38" s="38"/>
+      <c r="S38">
+        <v>26254051</v>
+      </c>
+      <c r="T38">
+        <v>58186710</v>
+      </c>
+      <c r="U38">
+        <f>T38/S38</f>
+        <v>2.216294544411451</v>
+      </c>
+      <c r="V38" s="38"/>
+      <c r="W38">
+        <v>31392327</v>
+      </c>
+      <c r="X38">
+        <v>64650155</v>
+      </c>
+      <c r="Y38">
+        <f>X38/W38</f>
+        <v>2.0594253812404539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>400000</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="28">
+        <v>24450734</v>
+      </c>
+      <c r="D39" s="28">
+        <v>58181879</v>
+      </c>
+      <c r="E39" s="31">
+        <f>D39/C39</f>
+        <v>2.379555517638039</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="28">
+        <v>190068534</v>
+      </c>
+      <c r="H39" s="28">
+        <v>64967109</v>
+      </c>
+      <c r="I39" s="31">
+        <f>H39/G39</f>
+        <v>0.34180886037664709</v>
+      </c>
+      <c r="J39" s="38"/>
+      <c r="K39">
+        <v>70922221</v>
+      </c>
+      <c r="L39">
+        <v>58972756</v>
+      </c>
+      <c r="M39">
+        <f>L39/K39</f>
+        <v>0.83151310221940178</v>
+      </c>
+      <c r="N39" s="38"/>
+      <c r="O39">
+        <v>41045839</v>
+      </c>
+      <c r="P39">
+        <v>59467203</v>
+      </c>
+      <c r="Q39">
+        <f>P39/O39</f>
+        <v>1.4487997918619717</v>
+      </c>
+      <c r="R39" s="38"/>
+      <c r="S39">
+        <v>30890635</v>
+      </c>
+      <c r="T39">
+        <v>62986298</v>
+      </c>
+      <c r="U39">
+        <f>T39/S39</f>
+        <v>2.0390094926828146</v>
+      </c>
+      <c r="V39" s="38"/>
+      <c r="W39">
+        <v>26814908</v>
+      </c>
+      <c r="X39">
+        <v>64606083</v>
+      </c>
+      <c r="Y39">
+        <f>X39/W39</f>
+        <v>2.4093345015392185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>420000</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="28">
+        <v>44446001</v>
+      </c>
+      <c r="D40" s="28">
+        <v>61803004</v>
+      </c>
+      <c r="E40" s="31">
+        <f>D40/C40</f>
+        <v>1.3905188905521557</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="28">
+        <v>29825670</v>
+      </c>
+      <c r="H40" s="28">
+        <v>70648735</v>
+      </c>
+      <c r="I40" s="31">
+        <f>H40/G40</f>
+        <v>2.3687224796626531</v>
+      </c>
+      <c r="J40" s="38"/>
+      <c r="K40">
+        <v>28383982</v>
+      </c>
+      <c r="L40">
+        <v>59019845</v>
+      </c>
+      <c r="M40">
+        <f>L40/K40</f>
+        <v>2.079336331315317</v>
+      </c>
+      <c r="N40" s="38"/>
+      <c r="O40">
+        <v>34887273</v>
+      </c>
+      <c r="P40">
+        <v>65768852</v>
+      </c>
+      <c r="Q40">
+        <f>P40/O40</f>
+        <v>1.8851817968116913</v>
+      </c>
+      <c r="R40" s="38"/>
+      <c r="S40">
+        <v>27438553</v>
+      </c>
+      <c r="T40">
+        <v>68275505</v>
+      </c>
+      <c r="U40">
+        <f>T40/S40</f>
+        <v>2.4883055968731296</v>
+      </c>
+      <c r="V40" s="38"/>
+      <c r="W40">
+        <v>24575705</v>
+      </c>
+      <c r="X40">
+        <v>67276949</v>
+      </c>
+      <c r="Y40">
+        <f>X40/W40</f>
+        <v>2.7375389230949834</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
+        <v>440000</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="28">
+        <v>25372014</v>
+      </c>
+      <c r="D41" s="28">
+        <v>63977005</v>
+      </c>
+      <c r="E41" s="31">
+        <f>D41/C41</f>
+        <v>2.5215580048158572</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="28">
+        <v>37741670</v>
+      </c>
+      <c r="H41" s="28">
+        <v>64186497</v>
+      </c>
+      <c r="I41" s="31">
+        <f>H41/G41</f>
+        <v>1.7006798321324943</v>
+      </c>
+      <c r="J41" s="38"/>
+      <c r="K41">
+        <v>55834609</v>
+      </c>
+      <c r="L41">
+        <v>73054566</v>
+      </c>
+      <c r="M41">
+        <f>L41/K41</f>
+        <v>1.3084100938183341</v>
+      </c>
+      <c r="N41" s="38"/>
+      <c r="O41">
+        <v>27750074</v>
+      </c>
+      <c r="P41">
+        <v>67783471</v>
+      </c>
+      <c r="Q41">
+        <f>P41/O41</f>
+        <v>2.4426410898940305</v>
+      </c>
+      <c r="R41" s="38"/>
+      <c r="S41">
+        <v>39340325</v>
+      </c>
+      <c r="T41">
+        <v>76127511</v>
+      </c>
+      <c r="U41">
+        <f>T41/S41</f>
+        <v>1.9351012224733781</v>
+      </c>
+      <c r="V41" s="38"/>
+      <c r="W41">
+        <v>29800313</v>
+      </c>
+      <c r="X41">
+        <v>68392023</v>
+      </c>
+      <c r="Y41">
+        <f>X41/W41</f>
+        <v>2.2950102235503365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>460000</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="28">
+        <v>27509793</v>
+      </c>
+      <c r="D42" s="28">
+        <v>67800376</v>
+      </c>
+      <c r="E42" s="31">
+        <f>D42/C42</f>
+        <v>2.4645905550797855</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="28">
+        <v>30710725</v>
+      </c>
+      <c r="H42" s="28">
+        <v>70382494</v>
+      </c>
+      <c r="I42" s="31">
+        <f>H42/G42</f>
+        <v>2.291788748067654</v>
+      </c>
+      <c r="J42" s="38"/>
+      <c r="K42">
+        <v>44755710</v>
+      </c>
+      <c r="L42">
+        <v>67498515</v>
+      </c>
+      <c r="M42">
+        <f>L42/K42</f>
+        <v>1.5081542667963483</v>
+      </c>
+      <c r="N42" s="38"/>
+      <c r="O42">
+        <v>28030201</v>
+      </c>
+      <c r="P42">
+        <v>66657530</v>
+      </c>
+      <c r="Q42">
+        <f>P42/O42</f>
+        <v>2.3780610777639448</v>
+      </c>
+      <c r="R42" s="38"/>
+      <c r="S42">
+        <v>162184434</v>
+      </c>
+      <c r="T42">
+        <v>72691126</v>
+      </c>
+      <c r="U42">
+        <f>T42/S42</f>
+        <v>0.4482003864809862</v>
+      </c>
+      <c r="V42" s="38"/>
+      <c r="W42">
+        <v>28968384</v>
+      </c>
+      <c r="X42">
+        <v>74027766</v>
+      </c>
+      <c r="Y42">
+        <f>X42/W42</f>
+        <v>2.5554675745806188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>480000</v>
+      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="28">
+        <v>29213495</v>
+      </c>
+      <c r="D43" s="28">
+        <v>68204265</v>
+      </c>
+      <c r="E43" s="31">
+        <f>D43/C43</f>
+        <v>2.3346835084264996</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="28">
+        <v>280012219</v>
+      </c>
+      <c r="H43" s="28">
+        <v>101021980</v>
+      </c>
+      <c r="I43" s="31">
+        <f>H43/G43</f>
+        <v>0.36077704166188546</v>
+      </c>
+      <c r="J43" s="38"/>
+      <c r="K43">
+        <v>70404228</v>
+      </c>
+      <c r="L43">
+        <v>73898570</v>
+      </c>
+      <c r="M43">
+        <f>L43/K43</f>
+        <v>1.0496325589991555</v>
+      </c>
+      <c r="N43" s="38"/>
+      <c r="O43">
+        <v>34624654</v>
+      </c>
+      <c r="P43">
+        <v>74674956</v>
+      </c>
+      <c r="Q43">
+        <f>P43/O43</f>
+        <v>2.1566989810208645</v>
+      </c>
+      <c r="R43" s="38"/>
+      <c r="S43">
+        <v>34426634</v>
+      </c>
+      <c r="T43">
+        <v>72994798</v>
+      </c>
+      <c r="U43">
+        <f>T43/S43</f>
+        <v>2.1203001722445478</v>
+      </c>
+      <c r="V43" s="38"/>
+      <c r="W43">
+        <v>32208559</v>
+      </c>
+      <c r="X43">
+        <v>74098402</v>
+      </c>
+      <c r="Y43">
+        <f>X43/W43</f>
+        <v>2.3005810970928566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="25">
+        <v>500000</v>
+      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="29">
+        <v>28365266</v>
+      </c>
+      <c r="D44" s="29">
+        <v>70829249</v>
+      </c>
+      <c r="E44" s="32">
+        <f>D44/C44</f>
+        <v>2.4970415930525736</v>
+      </c>
+      <c r="F44" s="39"/>
+      <c r="G44" s="29">
+        <v>65397563</v>
+      </c>
+      <c r="H44" s="29">
+        <v>81075012</v>
+      </c>
+      <c r="I44" s="32">
+        <f>H44/G44</f>
+        <v>1.239725278448067</v>
+      </c>
+      <c r="J44" s="39"/>
+      <c r="K44">
+        <v>34700723</v>
+      </c>
+      <c r="L44">
+        <v>70439847</v>
+      </c>
+      <c r="M44">
+        <f>L44/K44</f>
+        <v>2.0299244773660767</v>
+      </c>
+      <c r="N44" s="39"/>
+      <c r="O44">
+        <v>30375056</v>
+      </c>
+      <c r="P44">
+        <v>73956527</v>
+      </c>
+      <c r="Q44">
+        <f>P44/O44</f>
+        <v>2.4347782930836406</v>
+      </c>
+      <c r="R44" s="39"/>
+      <c r="S44">
+        <v>74080290</v>
+      </c>
+      <c r="T44">
+        <v>76353906</v>
+      </c>
+      <c r="U44">
+        <f>T44/S44</f>
+        <v>1.0306912405445496</v>
+      </c>
+      <c r="V44" s="39"/>
+      <c r="W44">
+        <v>61073103</v>
+      </c>
+      <c r="X44">
+        <v>80296814</v>
+      </c>
+      <c r="Y44">
+        <f>X44/W44</f>
+        <v>1.3147655851054432</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+    </row>
+    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+    </row>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+    </row>
+    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+    </row>
+    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+    </row>
+    <row r="74" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+    </row>
+    <row r="75" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+    </row>
+    <row r="76" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+    </row>
+    <row r="77" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+    </row>
+    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+    </row>
+    <row r="79" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+    </row>
+    <row r="80" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+    </row>
+    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+    </row>
+    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+    </row>
+    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+    </row>
+    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+    </row>
+    <row r="94" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+    </row>
+    <row r="95" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+    </row>
+    <row r="96" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+    </row>
+    <row r="97" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+    </row>
+    <row r="98" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+    </row>
+    <row r="99" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+    </row>
+    <row r="101" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+    </row>
+    <row r="102" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+    </row>
+    <row r="103" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+    </row>
+    <row r="104" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+    </row>
+    <row r="105" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+    </row>
+    <row r="106" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+    </row>
+    <row r="107" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+    </row>
+    <row r="108" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+    </row>
+    <row r="109" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+    </row>
+    <row r="110" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+    </row>
+    <row r="111" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+    </row>
+    <row r="112" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+    </row>
+    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+    </row>
+    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+    </row>
+    <row r="118" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+    </row>
+    <row r="119" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+    </row>
+    <row r="120" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+    </row>
+    <row r="121" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+    </row>
+    <row r="122" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+    </row>
+    <row r="123" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+    </row>
+    <row r="124" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+    </row>
+    <row r="125" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+    </row>
+    <row r="126" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+    </row>
+    <row r="127" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+    </row>
+    <row r="128" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+    </row>
+    <row r="129" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+    </row>
+    <row r="130" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+    </row>
+    <row r="131" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+    </row>
+    <row r="132" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+    </row>
+    <row r="133" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+    </row>
+    <row r="134" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+    </row>
+    <row r="135" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+    </row>
+    <row r="136" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+    </row>
+    <row r="137" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E137" s="17"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+    </row>
+    <row r="138" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+    </row>
+    <row r="139" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E139" s="17"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17"/>
+    </row>
+    <row r="140" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
+    </row>
+    <row r="141" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+    </row>
+    <row r="142" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E142" s="17"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+    </row>
+    <row r="143" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+    </row>
+    <row r="144" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+    </row>
+    <row r="145" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+    </row>
+    <row r="146" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E146" s="17"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="17"/>
+    </row>
+    <row r="147" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+    </row>
+    <row r="148" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E148" s="17"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="17"/>
+    </row>
+    <row r="149" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E149" s="17"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+    </row>
+    <row r="150" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E150" s="17"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+    </row>
+    <row r="151" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E151" s="17"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="17"/>
+    </row>
+    <row r="152" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E152" s="17"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="17"/>
+    </row>
+    <row r="153" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E153" s="17"/>
+      <c r="I153" s="17"/>
+      <c r="J153" s="17"/>
+    </row>
+    <row r="154" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E154" s="17"/>
+      <c r="I154" s="17"/>
+      <c r="J154" s="17"/>
+    </row>
+    <row r="155" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E155" s="17"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+    </row>
+    <row r="156" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E156" s="17"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="17"/>
+    </row>
+    <row r="157" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E157" s="17"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="17"/>
+    </row>
+    <row r="158" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
+    </row>
+    <row r="159" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+    </row>
+    <row r="160" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="17"/>
+    </row>
+    <row r="161" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="17"/>
+    </row>
+    <row r="162" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E162" s="17"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+    </row>
+    <row r="163" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+    </row>
+    <row r="164" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+    </row>
+    <row r="165" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E165" s="17"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
+    </row>
+    <row r="166" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+    </row>
+    <row r="167" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E167" s="17"/>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17"/>
+    </row>
+    <row r="168" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E168" s="17"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17"/>
+    </row>
+    <row r="169" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E169" s="17"/>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17"/>
+    </row>
+    <row r="170" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E170" s="17"/>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17"/>
+    </row>
+    <row r="171" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E171" s="17"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+    </row>
+    <row r="172" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E172" s="17"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+    </row>
+    <row r="173" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E173" s="17"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+    </row>
+    <row r="174" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E174" s="17"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="17"/>
+    </row>
+    <row r="175" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E175" s="17"/>
+      <c r="I175" s="17"/>
+      <c r="J175" s="17"/>
+    </row>
+    <row r="176" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E176" s="17"/>
+      <c r="I176" s="17"/>
+      <c r="J176" s="17"/>
+    </row>
+    <row r="177" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+    </row>
+    <row r="178" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E178" s="17"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+    </row>
+    <row r="179" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E179" s="17"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+    </row>
+    <row r="180" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E180" s="17"/>
+      <c r="I180" s="17"/>
+      <c r="J180" s="17"/>
+    </row>
+    <row r="181" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E181" s="17"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+    </row>
+    <row r="182" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E182" s="17"/>
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+    </row>
+    <row r="183" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E183" s="17"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+    </row>
+    <row r="184" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E184" s="17"/>
+      <c r="I184" s="17"/>
+      <c r="J184" s="17"/>
+    </row>
+    <row r="185" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E185" s="17"/>
+      <c r="I185" s="17"/>
+      <c r="J185" s="17"/>
+    </row>
+    <row r="186" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E186" s="17"/>
+      <c r="I186" s="17"/>
+      <c r="J186" s="17"/>
+    </row>
+    <row r="187" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E187" s="17"/>
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+    </row>
+    <row r="188" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E188" s="17"/>
+      <c r="I188" s="17"/>
+      <c r="J188" s="17"/>
+    </row>
+    <row r="189" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E189" s="17"/>
+      <c r="I189" s="17"/>
+      <c r="J189" s="17"/>
+    </row>
+    <row r="190" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E190" s="17"/>
+      <c r="I190" s="17"/>
+      <c r="J190" s="17"/>
+    </row>
+    <row r="191" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E191" s="17"/>
+      <c r="I191" s="17"/>
+      <c r="J191" s="17"/>
+    </row>
+    <row r="192" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E192" s="17"/>
+      <c r="I192" s="17"/>
+      <c r="J192" s="17"/>
+    </row>
+    <row r="193" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E193" s="17"/>
+      <c r="I193" s="17"/>
+      <c r="J193" s="17"/>
+    </row>
+    <row r="194" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E194" s="17"/>
+      <c r="I194" s="17"/>
+      <c r="J194" s="17"/>
+    </row>
+    <row r="195" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E195" s="17"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="17"/>
+    </row>
+    <row r="196" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E196" s="17"/>
+      <c r="I196" s="17"/>
+      <c r="J196" s="17"/>
+    </row>
+    <row r="197" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E197" s="17"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+    </row>
+    <row r="198" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E198" s="17"/>
+      <c r="I198" s="17"/>
+      <c r="J198" s="17"/>
+    </row>
+    <row r="199" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E199" s="17"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
+    </row>
+    <row r="200" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E200" s="17"/>
+      <c r="I200" s="17"/>
+      <c r="J200" s="17"/>
+    </row>
+    <row r="201" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E201" s="17"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
+    </row>
+    <row r="202" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E202" s="17"/>
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
+    </row>
+    <row r="203" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E203" s="17"/>
+      <c r="I203" s="17"/>
+      <c r="J203" s="17"/>
+    </row>
+    <row r="204" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E204" s="17"/>
+      <c r="I204" s="17"/>
+      <c r="J204" s="17"/>
+    </row>
+    <row r="205" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E205" s="17"/>
+      <c r="I205" s="17"/>
+      <c r="J205" s="17"/>
+    </row>
+    <row r="206" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E206" s="17"/>
+      <c r="I206" s="17"/>
+      <c r="J206" s="17"/>
+    </row>
+    <row r="207" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E207" s="17"/>
+      <c r="I207" s="17"/>
+      <c r="J207" s="17"/>
+    </row>
+    <row r="208" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E208" s="17"/>
+      <c r="I208" s="17"/>
+      <c r="J208" s="17"/>
+    </row>
+    <row r="209" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E209" s="17"/>
+      <c r="I209" s="17"/>
+      <c r="J209" s="17"/>
+    </row>
+    <row r="210" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E210" s="17"/>
+      <c r="I210" s="17"/>
+      <c r="J210" s="17"/>
+    </row>
+    <row r="211" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E211" s="17"/>
+      <c r="I211" s="17"/>
+      <c r="J211" s="17"/>
+    </row>
+    <row r="212" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E212" s="17"/>
+      <c r="I212" s="17"/>
+      <c r="J212" s="17"/>
+    </row>
+    <row r="213" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E213" s="17"/>
+      <c r="I213" s="17"/>
+      <c r="J213" s="17"/>
+      <c r="K213" s="14"/>
+    </row>
+    <row r="214" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E214" s="17"/>
+      <c r="I214" s="17"/>
+      <c r="J214" s="17"/>
+      <c r="K214" s="14"/>
+    </row>
+    <row r="215" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E215" s="17"/>
+      <c r="I215" s="17"/>
+      <c r="J215" s="17"/>
+      <c r="K215" s="14"/>
+    </row>
+    <row r="216" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E216" s="17"/>
+      <c r="I216" s="17"/>
+      <c r="J216" s="17"/>
+      <c r="K216" s="14"/>
+    </row>
+    <row r="217" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E217" s="17"/>
+      <c r="I217" s="17"/>
+      <c r="J217" s="17"/>
+      <c r="K217" s="14"/>
+    </row>
+    <row r="218" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E218" s="17"/>
+      <c r="I218" s="17"/>
+      <c r="J218" s="17"/>
+      <c r="K218" s="14"/>
+    </row>
+    <row r="219" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E219" s="17"/>
+      <c r="I219" s="17"/>
+      <c r="J219" s="17"/>
+      <c r="K219" s="14"/>
+    </row>
+    <row r="220" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E220" s="17"/>
+      <c r="I220" s="17"/>
+      <c r="J220" s="17"/>
+      <c r="K220" s="14"/>
+    </row>
+    <row r="221" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E221" s="17"/>
+      <c r="I221" s="17"/>
+      <c r="J221" s="17"/>
+      <c r="K221" s="14"/>
+    </row>
+    <row r="222" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E222" s="17"/>
+      <c r="I222" s="17"/>
+      <c r="J222" s="17"/>
+      <c r="K222" s="14"/>
+    </row>
+    <row r="223" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E223" s="17"/>
+      <c r="I223" s="17"/>
+      <c r="J223" s="17"/>
+      <c r="K223" s="14"/>
+    </row>
+    <row r="224" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E224" s="17"/>
+      <c r="I224" s="17"/>
+      <c r="J224" s="17"/>
+      <c r="K224" s="14"/>
+    </row>
+    <row r="225" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E225" s="17"/>
+      <c r="I225" s="17"/>
+      <c r="J225" s="17"/>
+      <c r="K225" s="14"/>
+    </row>
+    <row r="226" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E226" s="17"/>
+      <c r="I226" s="17"/>
+      <c r="J226" s="17"/>
+      <c r="K226" s="14"/>
+    </row>
+    <row r="227" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E227" s="17"/>
+      <c r="I227" s="17"/>
+      <c r="J227" s="17"/>
+      <c r="K227" s="14"/>
+    </row>
+    <row r="228" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E228" s="17"/>
+      <c r="I228" s="17"/>
+      <c r="J228" s="17"/>
+      <c r="K228" s="14"/>
+    </row>
+    <row r="229" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E229" s="17"/>
+      <c r="I229" s="17"/>
+      <c r="J229" s="17"/>
+      <c r="K229" s="14"/>
+    </row>
+    <row r="230" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E230" s="17"/>
+      <c r="I230" s="17"/>
+      <c r="J230" s="17"/>
+      <c r="K230" s="14"/>
+    </row>
+    <row r="231" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E231" s="17"/>
+      <c r="I231" s="17"/>
+      <c r="J231" s="17"/>
+      <c r="K231" s="14"/>
+    </row>
+    <row r="232" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E232" s="17"/>
+      <c r="I232" s="17"/>
+      <c r="J232" s="17"/>
+      <c r="K232" s="14"/>
+    </row>
+    <row r="233" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E233" s="17"/>
+      <c r="I233" s="17"/>
+      <c r="J233" s="17"/>
+      <c r="K233" s="14"/>
+    </row>
+    <row r="234" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E234" s="17"/>
+      <c r="I234" s="17"/>
+      <c r="J234" s="17"/>
+      <c r="K234" s="14"/>
+    </row>
+    <row r="235" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E235" s="17"/>
+      <c r="I235" s="17"/>
+      <c r="J235" s="17"/>
+      <c r="K235" s="14"/>
+    </row>
+    <row r="236" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E236" s="17"/>
+      <c r="I236" s="17"/>
+      <c r="J236" s="17"/>
+      <c r="K236" s="14"/>
+    </row>
+    <row r="237" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E237" s="17"/>
+      <c r="I237" s="17"/>
+      <c r="J237" s="17"/>
+      <c r="K237" s="14"/>
+    </row>
+    <row r="238" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E238" s="17"/>
+      <c r="I238" s="17"/>
+      <c r="J238" s="17"/>
+      <c r="K238" s="14"/>
+    </row>
+    <row r="239" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E239" s="17"/>
+      <c r="I239" s="17"/>
+      <c r="J239" s="17"/>
+      <c r="K239" s="14"/>
+    </row>
+    <row r="240" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E240" s="17"/>
+      <c r="I240" s="17"/>
+      <c r="J240" s="17"/>
+      <c r="K240" s="14"/>
+    </row>
+    <row r="241" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E241" s="17"/>
+      <c r="I241" s="17"/>
+      <c r="J241" s="17"/>
+      <c r="K241" s="14"/>
+    </row>
+    <row r="242" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E242" s="17"/>
+      <c r="I242" s="17"/>
+      <c r="J242" s="17"/>
+      <c r="K242" s="14"/>
+    </row>
+    <row r="243" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E243" s="17"/>
+      <c r="I243" s="17"/>
+      <c r="J243" s="17"/>
+      <c r="K243" s="14"/>
+    </row>
+    <row r="244" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E244" s="17"/>
+      <c r="I244" s="17"/>
+      <c r="J244" s="17"/>
+      <c r="K244" s="14"/>
+    </row>
+    <row r="245" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E245" s="17"/>
+      <c r="I245" s="17"/>
+      <c r="J245" s="17"/>
+      <c r="K245" s="14"/>
+    </row>
+    <row r="246" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E246" s="17"/>
+      <c r="I246" s="17"/>
+      <c r="J246" s="17"/>
+      <c r="K246" s="14"/>
+    </row>
+    <row r="247" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E247" s="17"/>
+      <c r="I247" s="17"/>
+      <c r="J247" s="17"/>
+      <c r="K247" s="14"/>
+    </row>
+    <row r="248" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E248" s="17"/>
+      <c r="I248" s="17"/>
+      <c r="J248" s="17"/>
+      <c r="K248" s="14"/>
+    </row>
+    <row r="249" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E249" s="17"/>
+      <c r="I249" s="17"/>
+      <c r="J249" s="17"/>
+      <c r="K249" s="14"/>
+    </row>
+    <row r="250" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E250" s="17"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="17"/>
+      <c r="K250" s="14"/>
+    </row>
+    <row r="251" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E251" s="17"/>
+      <c r="I251" s="17"/>
+      <c r="J251" s="17"/>
+      <c r="K251" s="14"/>
+    </row>
+    <row r="252" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E252" s="17"/>
+      <c r="I252" s="17"/>
+      <c r="J252" s="17"/>
+      <c r="K252" s="14"/>
+    </row>
+    <row r="253" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E253" s="17"/>
+      <c r="I253" s="17"/>
+      <c r="J253" s="17"/>
+      <c r="K253" s="14"/>
+    </row>
+    <row r="254" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E254" s="17"/>
+      <c r="I254" s="17"/>
+      <c r="J254" s="17"/>
+      <c r="K254" s="14"/>
+    </row>
+    <row r="255" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E255" s="17"/>
+      <c r="I255" s="17"/>
+      <c r="J255" s="17"/>
+      <c r="K255" s="14"/>
+    </row>
+    <row r="256" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E256" s="17"/>
+      <c r="I256" s="17"/>
+      <c r="J256" s="17"/>
+      <c r="K256" s="14"/>
+    </row>
+    <row r="257" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E257" s="17"/>
+      <c r="I257" s="17"/>
+      <c r="J257" s="17"/>
+      <c r="K257" s="14"/>
+    </row>
+    <row r="258" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E258" s="17"/>
+      <c r="I258" s="17"/>
+      <c r="J258" s="17"/>
+      <c r="K258" s="14"/>
+    </row>
+    <row r="259" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E259" s="17"/>
+      <c r="I259" s="17"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="14"/>
+    </row>
+    <row r="260" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E260" s="17"/>
+      <c r="I260" s="17"/>
+      <c r="J260" s="17"/>
+      <c r="K260" s="14"/>
+    </row>
+    <row r="261" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E261" s="17"/>
+      <c r="I261" s="17"/>
+      <c r="J261" s="17"/>
+      <c r="K261" s="14"/>
+    </row>
+    <row r="262" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E262" s="17"/>
+      <c r="I262" s="17"/>
+      <c r="J262" s="17"/>
+      <c r="K262" s="14"/>
+    </row>
+    <row r="263" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E263" s="17"/>
+      <c r="I263" s="17"/>
+      <c r="J263" s="17"/>
+      <c r="K263" s="14"/>
+    </row>
+    <row r="264" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E264" s="17"/>
+      <c r="I264" s="17"/>
+      <c r="J264" s="17"/>
+      <c r="K264" s="14"/>
+    </row>
+    <row r="265" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E265" s="17"/>
+      <c r="I265" s="17"/>
+      <c r="J265" s="17"/>
+      <c r="K265" s="14"/>
+    </row>
+    <row r="266" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E266" s="17"/>
+      <c r="I266" s="17"/>
+      <c r="J266" s="17"/>
+      <c r="K266" s="14"/>
+    </row>
+    <row r="267" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E267" s="17"/>
+      <c r="I267" s="17"/>
+      <c r="J267" s="17"/>
+      <c r="K267" s="14"/>
+    </row>
+    <row r="268" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E268" s="17"/>
+      <c r="I268" s="17"/>
+      <c r="J268" s="17"/>
+      <c r="K268" s="14"/>
+    </row>
+    <row r="269" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E269" s="17"/>
+      <c r="I269" s="17"/>
+      <c r="J269" s="17"/>
+      <c r="K269" s="14"/>
+    </row>
+    <row r="270" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E270" s="17"/>
+      <c r="I270" s="17"/>
+      <c r="J270" s="17"/>
+      <c r="K270" s="14"/>
+    </row>
+    <row r="271" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E271" s="17"/>
+      <c r="I271" s="17"/>
+      <c r="J271" s="17"/>
+      <c r="K271" s="14"/>
+    </row>
+    <row r="272" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E272" s="17"/>
+      <c r="I272" s="17"/>
+      <c r="J272" s="17"/>
+      <c r="K272" s="14"/>
+    </row>
+    <row r="273" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E273" s="17"/>
+      <c r="I273" s="17"/>
+      <c r="J273" s="17"/>
+      <c r="K273" s="14"/>
+    </row>
+    <row r="274" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E274" s="17"/>
+      <c r="I274" s="17"/>
+      <c r="J274" s="17"/>
+      <c r="K274" s="14"/>
+    </row>
+    <row r="275" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E275" s="17"/>
+      <c r="I275" s="17"/>
+      <c r="J275" s="17"/>
+      <c r="K275" s="14"/>
+    </row>
+    <row r="276" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E276" s="17"/>
+      <c r="I276" s="17"/>
+      <c r="J276" s="17"/>
+      <c r="K276" s="14"/>
+    </row>
+    <row r="277" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E277" s="17"/>
+      <c r="I277" s="17"/>
+      <c r="J277" s="17"/>
+      <c r="K277" s="14"/>
+    </row>
+    <row r="278" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E278" s="17"/>
+      <c r="I278" s="17"/>
+      <c r="J278" s="17"/>
+      <c r="K278" s="14"/>
+    </row>
+    <row r="279" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E279" s="17"/>
+      <c r="I279" s="17"/>
+      <c r="J279" s="17"/>
+      <c r="K279" s="14"/>
+    </row>
+    <row r="280" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E280" s="17"/>
+      <c r="I280" s="17"/>
+      <c r="J280" s="17"/>
+      <c r="K280" s="14"/>
+    </row>
+    <row r="281" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E281" s="17"/>
+      <c r="I281" s="17"/>
+      <c r="J281" s="17"/>
+      <c r="K281" s="14"/>
+    </row>
+    <row r="282" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E282" s="17"/>
+      <c r="I282" s="17"/>
+      <c r="J282" s="17"/>
+      <c r="K282" s="14"/>
+    </row>
+    <row r="283" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E283" s="17"/>
+      <c r="I283" s="17"/>
+      <c r="J283" s="17"/>
+      <c r="K283" s="14"/>
+    </row>
+    <row r="284" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E284" s="17"/>
+      <c r="I284" s="17"/>
+      <c r="J284" s="17"/>
+      <c r="K284" s="14"/>
+    </row>
+    <row r="285" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E285" s="17"/>
+      <c r="I285" s="17"/>
+      <c r="J285" s="17"/>
+      <c r="K285" s="14"/>
+    </row>
+    <row r="286" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E286" s="17"/>
+      <c r="I286" s="17"/>
+      <c r="J286" s="17"/>
+      <c r="K286" s="14"/>
+    </row>
+    <row r="287" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E287" s="17"/>
+      <c r="I287" s="17"/>
+      <c r="J287" s="17"/>
+      <c r="K287" s="14"/>
+    </row>
+    <row r="288" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E288" s="17"/>
+      <c r="I288" s="17"/>
+      <c r="J288" s="17"/>
+      <c r="K288" s="14"/>
+    </row>
+    <row r="289" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E289" s="17"/>
+      <c r="I289" s="17"/>
+      <c r="J289" s="17"/>
+      <c r="K289" s="14"/>
+    </row>
+    <row r="290" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E290" s="17"/>
+      <c r="I290" s="17"/>
+      <c r="J290" s="17"/>
+      <c r="K290" s="14"/>
+    </row>
+    <row r="291" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E291" s="17"/>
+      <c r="I291" s="17"/>
+      <c r="J291" s="17"/>
+      <c r="K291" s="14"/>
+    </row>
+    <row r="292" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E292" s="17"/>
+      <c r="I292" s="17"/>
+      <c r="J292" s="17"/>
+      <c r="K292" s="14"/>
+    </row>
+    <row r="293" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E293" s="17"/>
+      <c r="I293" s="17"/>
+      <c r="J293" s="17"/>
+      <c r="K293" s="14"/>
+    </row>
+    <row r="294" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E294" s="17"/>
+      <c r="I294" s="17"/>
+      <c r="J294" s="17"/>
+      <c r="K294" s="14"/>
+    </row>
+    <row r="295" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E295" s="17"/>
+      <c r="I295" s="17"/>
+      <c r="J295" s="17"/>
+      <c r="K295" s="14"/>
+    </row>
+    <row r="296" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E296" s="17"/>
+      <c r="I296" s="17"/>
+      <c r="J296" s="17"/>
+      <c r="K296" s="14"/>
+    </row>
+    <row r="297" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E297" s="17"/>
+      <c r="I297" s="17"/>
+      <c r="J297" s="17"/>
+      <c r="K297" s="14"/>
+    </row>
+    <row r="298" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E298" s="17"/>
+      <c r="I298" s="17"/>
+      <c r="J298" s="17"/>
+      <c r="K298" s="14"/>
+    </row>
+    <row r="299" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E299" s="17"/>
+      <c r="I299" s="17"/>
+      <c r="J299" s="17"/>
+      <c r="K299" s="14"/>
+    </row>
+    <row r="300" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E300" s="17"/>
+      <c r="I300" s="17"/>
+      <c r="J300" s="17"/>
+      <c r="K300" s="14"/>
+    </row>
+    <row r="301" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E301" s="17"/>
+      <c r="I301" s="17"/>
+      <c r="J301" s="17"/>
+      <c r="K301" s="14"/>
+    </row>
+    <row r="302" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E302" s="17"/>
+      <c r="I302" s="17"/>
+      <c r="J302" s="17"/>
+      <c r="K302" s="14"/>
+    </row>
+    <row r="303" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E303" s="17"/>
+      <c r="I303" s="17"/>
+      <c r="J303" s="17"/>
+      <c r="K303" s="14"/>
+    </row>
+    <row r="304" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E304" s="17"/>
+      <c r="I304" s="17"/>
+      <c r="J304" s="17"/>
+      <c r="K304" s="14"/>
+    </row>
+    <row r="305" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E305" s="17"/>
+      <c r="I305" s="17"/>
+      <c r="J305" s="17"/>
+      <c r="K305" s="14"/>
+    </row>
+    <row r="306" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E306" s="17"/>
+      <c r="I306" s="17"/>
+      <c r="J306" s="17"/>
+      <c r="K306" s="14"/>
+    </row>
+    <row r="307" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E307" s="17"/>
+      <c r="I307" s="17"/>
+      <c r="J307" s="17"/>
+      <c r="K307" s="14"/>
+    </row>
+    <row r="308" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E308" s="17"/>
+      <c r="I308" s="17"/>
+      <c r="J308" s="17"/>
+      <c r="K308" s="14"/>
+    </row>
+    <row r="309" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E309" s="17"/>
+      <c r="I309" s="17"/>
+      <c r="J309" s="17"/>
+      <c r="K309" s="14"/>
+    </row>
+    <row r="310" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E310" s="17"/>
+      <c r="I310" s="17"/>
+      <c r="J310" s="17"/>
+      <c r="K310" s="14"/>
+    </row>
+    <row r="311" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E311" s="17"/>
+      <c r="I311" s="17"/>
+      <c r="J311" s="17"/>
+      <c r="K311" s="14"/>
+    </row>
+    <row r="312" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E312" s="17"/>
+      <c r="I312" s="17"/>
+      <c r="J312" s="17"/>
+      <c r="K312" s="14"/>
+    </row>
+    <row r="313" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E313" s="17"/>
+      <c r="I313" s="17"/>
+      <c r="J313" s="17"/>
+      <c r="K313" s="14"/>
+    </row>
+    <row r="314" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E314" s="17"/>
+      <c r="I314" s="17"/>
+      <c r="J314" s="17"/>
+      <c r="K314" s="14"/>
+    </row>
+    <row r="315" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E315" s="17"/>
+      <c r="I315" s="17"/>
+      <c r="J315" s="17"/>
+      <c r="K315" s="14"/>
+    </row>
+    <row r="316" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E316" s="17"/>
+      <c r="I316" s="17"/>
+      <c r="J316" s="17"/>
+      <c r="K316" s="14"/>
+    </row>
+    <row r="317" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E317" s="17"/>
+      <c r="I317" s="17"/>
+      <c r="J317" s="17"/>
+      <c r="K317" s="14"/>
+    </row>
+    <row r="318" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E318" s="17"/>
+      <c r="I318" s="17"/>
+      <c r="J318" s="17"/>
+      <c r="K318" s="14"/>
+    </row>
+    <row r="319" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E319" s="17"/>
+      <c r="I319" s="17"/>
+      <c r="J319" s="17"/>
+      <c r="K319" s="14"/>
+    </row>
+    <row r="320" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E320" s="17"/>
+      <c r="I320" s="17"/>
+      <c r="J320" s="17"/>
+      <c r="K320" s="14"/>
+    </row>
+    <row r="321" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E321" s="17"/>
+      <c r="I321" s="17"/>
+      <c r="J321" s="17"/>
+      <c r="K321" s="14"/>
+    </row>
+    <row r="322" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E322" s="17"/>
+      <c r="I322" s="17"/>
+      <c r="J322" s="17"/>
+      <c r="K322" s="14"/>
+    </row>
+    <row r="323" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E323" s="17"/>
+      <c r="I323" s="17"/>
+      <c r="J323" s="17"/>
+      <c r="K323" s="14"/>
+    </row>
+    <row r="324" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E324" s="17"/>
+      <c r="I324" s="17"/>
+      <c r="J324" s="17"/>
+      <c r="K324" s="14"/>
+    </row>
+    <row r="325" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E325" s="17"/>
+      <c r="I325" s="17"/>
+      <c r="J325" s="17"/>
+      <c r="K325" s="14"/>
+    </row>
+    <row r="326" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E326" s="17"/>
+      <c r="I326" s="17"/>
+      <c r="J326" s="17"/>
+      <c r="K326" s="14"/>
+    </row>
+    <row r="327" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E327" s="17"/>
+      <c r="I327" s="17"/>
+      <c r="J327" s="17"/>
+      <c r="K327" s="14"/>
+    </row>
+    <row r="328" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E328" s="17"/>
+      <c r="I328" s="17"/>
+      <c r="J328" s="17"/>
+      <c r="K328" s="14"/>
+    </row>
+    <row r="329" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E329" s="17"/>
+      <c r="I329" s="17"/>
+      <c r="J329" s="17"/>
+      <c r="K329" s="14"/>
+    </row>
+    <row r="330" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E330" s="17"/>
+      <c r="I330" s="17"/>
+      <c r="J330" s="17"/>
+      <c r="K330" s="14"/>
+    </row>
+    <row r="331" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E331" s="17"/>
+      <c r="I331" s="17"/>
+      <c r="J331" s="17"/>
+      <c r="K331" s="14"/>
+    </row>
+    <row r="332" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E332" s="17"/>
+      <c r="I332" s="17"/>
+      <c r="J332" s="17"/>
+      <c r="K332" s="14"/>
+    </row>
+    <row r="333" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E333" s="17"/>
+      <c r="I333" s="17"/>
+      <c r="J333" s="17"/>
+      <c r="K333" s="14"/>
+    </row>
+    <row r="334" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E334" s="17"/>
+      <c r="I334" s="17"/>
+      <c r="J334" s="17"/>
+      <c r="K334" s="14"/>
+    </row>
+    <row r="335" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E335" s="17"/>
+      <c r="I335" s="17"/>
+      <c r="J335" s="17"/>
+      <c r="K335" s="14"/>
+    </row>
+    <row r="336" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E336" s="17"/>
+      <c r="I336" s="17"/>
+      <c r="J336" s="17"/>
+      <c r="K336" s="14"/>
+    </row>
+    <row r="337" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E337" s="17"/>
+      <c r="I337" s="17"/>
+      <c r="J337" s="17"/>
+      <c r="K337" s="14"/>
+    </row>
+    <row r="338" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E338" s="17"/>
+      <c r="I338" s="17"/>
+      <c r="J338" s="17"/>
+      <c r="K338" s="14"/>
+    </row>
+    <row r="339" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E339" s="17"/>
+      <c r="I339" s="17"/>
+      <c r="J339" s="17"/>
+      <c r="K339" s="14"/>
+    </row>
+    <row r="340" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E340" s="17"/>
+      <c r="I340" s="17"/>
+      <c r="J340" s="17"/>
+      <c r="K340" s="14"/>
+    </row>
+    <row r="341" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E341" s="17"/>
+      <c r="I341" s="17"/>
+      <c r="J341" s="17"/>
+      <c r="K341" s="14"/>
+    </row>
+    <row r="342" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E342" s="17"/>
+      <c r="I342" s="17"/>
+      <c r="J342" s="17"/>
+      <c r="K342" s="14"/>
+    </row>
+    <row r="343" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E343" s="17"/>
+      <c r="I343" s="17"/>
+      <c r="J343" s="17"/>
+      <c r="K343" s="14"/>
+    </row>
+    <row r="344" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E344" s="17"/>
+      <c r="I344" s="17"/>
+      <c r="J344" s="17"/>
+      <c r="K344" s="14"/>
+    </row>
+    <row r="345" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E345" s="17"/>
+      <c r="I345" s="17"/>
+      <c r="J345" s="17"/>
+      <c r="K345" s="14"/>
+    </row>
+    <row r="346" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E346" s="17"/>
+      <c r="I346" s="17"/>
+      <c r="J346" s="17"/>
+      <c r="K346" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="V24:V44"/>
+    <mergeCell ref="V2:V23"/>
+    <mergeCell ref="J24:J44"/>
+    <mergeCell ref="J2:J23"/>
+    <mergeCell ref="N2:N23"/>
+    <mergeCell ref="N24:N44"/>
+    <mergeCell ref="R2:R23"/>
+    <mergeCell ref="R24:R44"/>
+    <mergeCell ref="B2:B23"/>
+    <mergeCell ref="F2:F23"/>
+    <mergeCell ref="F24:F44"/>
+    <mergeCell ref="B24:B44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="13" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="51" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52">
+        <v>100000</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="48">
+        <v>9794180</v>
+      </c>
+      <c r="D3" s="42">
+        <v>16213553</v>
+      </c>
+      <c r="E3" s="56">
+        <f>D3/C3</f>
+        <v>1.6554273047871286</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="18">
+        <v>109474690</v>
+      </c>
+      <c r="H3" s="15">
+        <v>17963743</v>
+      </c>
+      <c r="I3" s="61">
+        <f>H3/G3</f>
+        <v>0.16409037559275116</v>
+      </c>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
+        <v>120000</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="49">
+        <v>14082415</v>
+      </c>
+      <c r="D4" s="13">
+        <v>17158982</v>
+      </c>
+      <c r="E4" s="57">
+        <f>D4/C4</f>
+        <v>1.2184687072494313</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="19">
+        <v>243893958</v>
+      </c>
+      <c r="H4" s="14">
+        <v>21266705</v>
+      </c>
+      <c r="I4" s="59">
+        <f>H4/G4</f>
+        <v>8.7196522514920188E-2</v>
+      </c>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="53">
+        <v>140000</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="49">
+        <v>38880893</v>
+      </c>
+      <c r="D5" s="13">
+        <v>19549720</v>
+      </c>
+      <c r="E5" s="57">
+        <f>D5/C5</f>
+        <v>0.50281046785628103</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="19">
+        <v>311301915</v>
+      </c>
+      <c r="H5" s="14">
+        <v>22708996</v>
+      </c>
+      <c r="I5" s="59">
+        <f>H5/G5</f>
+        <v>7.2948462266928235E-2</v>
+      </c>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
+        <v>160000</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="49">
+        <v>31472019</v>
+      </c>
+      <c r="D6" s="13">
+        <v>23544547</v>
+      </c>
+      <c r="E6" s="57">
+        <f>D6/C6</f>
+        <v>0.74811047235323547</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="19">
+        <v>75437457</v>
+      </c>
+      <c r="H6" s="14">
+        <v>28783042</v>
+      </c>
+      <c r="I6" s="59">
+        <f>H6/G6</f>
+        <v>0.38154841301185433</v>
+      </c>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="53">
+        <v>180000</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="49">
+        <v>16665741</v>
+      </c>
+      <c r="D7" s="13">
+        <v>28710595</v>
+      </c>
+      <c r="E7" s="57">
+        <f>D7/C7</f>
+        <v>1.722731380500873</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="19">
+        <v>404610744</v>
+      </c>
+      <c r="H7" s="14">
+        <v>37806872</v>
+      </c>
+      <c r="I7" s="59">
+        <f>H7/G7</f>
+        <v>9.3440108945797046E-2</v>
+      </c>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="53">
+        <v>200000</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="49">
+        <v>17934160</v>
+      </c>
+      <c r="D8" s="13">
+        <v>27664949</v>
+      </c>
+      <c r="E8" s="57">
+        <f>D8/C8</f>
+        <v>1.5425840407356688</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="19">
+        <v>41348304</v>
+      </c>
+      <c r="H8" s="14">
+        <v>38938247</v>
+      </c>
+      <c r="I8" s="59">
+        <f>H8/G8</f>
+        <v>0.94171328042862412</v>
+      </c>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="53">
+        <v>220000</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="49">
+        <v>18478717</v>
+      </c>
+      <c r="D9" s="13">
+        <v>32636598</v>
+      </c>
+      <c r="E9" s="57">
+        <f>D9/C9</f>
+        <v>1.7661722943210829</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="19">
+        <v>37212205</v>
+      </c>
+      <c r="H9" s="14">
+        <v>84022985</v>
+      </c>
+      <c r="I9" s="59">
+        <f>H9/G9</f>
+        <v>2.2579415812634593</v>
+      </c>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
+        <v>240000</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="49">
+        <v>25130525</v>
+      </c>
+      <c r="D10" s="13">
+        <v>37357702</v>
+      </c>
+      <c r="E10" s="57">
+        <f>D10/C10</f>
+        <v>1.4865468190576998</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="19">
+        <v>258269781</v>
+      </c>
+      <c r="H10" s="14">
+        <v>48826606</v>
+      </c>
+      <c r="I10" s="59">
+        <f>H10/G10</f>
+        <v>0.18905272545222779</v>
+      </c>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="53">
+        <v>260000</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="49">
+        <v>24056504</v>
+      </c>
+      <c r="D11" s="13">
+        <v>37167531</v>
+      </c>
+      <c r="E11" s="57">
+        <f>D11/C11</f>
+        <v>1.5450096572635825</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="19">
+        <v>31655550</v>
+      </c>
+      <c r="H11" s="14">
+        <v>46492618</v>
+      </c>
+      <c r="I11" s="59">
+        <f>H11/G11</f>
+        <v>1.4687035290809984</v>
+      </c>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="53">
+        <v>280000</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="49">
+        <v>39148342</v>
+      </c>
+      <c r="D12" s="13">
+        <v>43717912</v>
+      </c>
+      <c r="E12" s="57">
+        <f>D12/C12</f>
+        <v>1.1167244835043078</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="19">
+        <v>43254254</v>
+      </c>
+      <c r="H12" s="14">
+        <v>72115780</v>
+      </c>
+      <c r="I12" s="59">
+        <f>H12/G12</f>
+        <v>1.6672528903168691</v>
+      </c>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="53">
+        <v>300000</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="49">
+        <v>23437689</v>
+      </c>
+      <c r="D13" s="13">
+        <v>45876217</v>
+      </c>
+      <c r="E13" s="57">
+        <f>D13/C13</f>
+        <v>1.9573694744392247</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="19">
+        <v>164505745</v>
+      </c>
+      <c r="H13" s="14">
+        <v>70064333</v>
+      </c>
+      <c r="I13" s="59">
+        <f>H13/G13</f>
+        <v>0.42590812254003652</v>
+      </c>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="53">
+        <v>320000</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="49">
+        <v>24534651</v>
+      </c>
+      <c r="D14" s="13">
+        <v>48361740</v>
+      </c>
+      <c r="E14" s="57">
+        <f>D14/C14</f>
+        <v>1.9711607065452041</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="19">
+        <v>35329197</v>
+      </c>
+      <c r="H14" s="14">
+        <v>59341025</v>
+      </c>
+      <c r="I14" s="59">
+        <f>H14/G14</f>
+        <v>1.679659602792557</v>
+      </c>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="53">
+        <v>340000</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="49">
+        <v>25792808</v>
+      </c>
+      <c r="D15" s="13">
+        <v>55681867</v>
+      </c>
+      <c r="E15" s="57">
+        <f>D15/C15</f>
+        <v>2.1588136894594805</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="19">
+        <v>109406469</v>
+      </c>
+      <c r="H15" s="14">
+        <v>82747925</v>
+      </c>
+      <c r="I15" s="59">
+        <f>H15/G15</f>
+        <v>0.75633484707380516</v>
+      </c>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="53">
+        <v>360000</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="49">
+        <v>43667803</v>
+      </c>
+      <c r="D16" s="13">
+        <v>54155055</v>
+      </c>
+      <c r="E16" s="57">
+        <f>D16/C16</f>
+        <v>1.2401598266805407</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="19">
+        <v>158426266</v>
+      </c>
+      <c r="H16" s="14">
+        <v>75132577</v>
+      </c>
+      <c r="I16" s="59">
+        <f>H16/G16</f>
+        <v>0.47424318515466368</v>
+      </c>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="53">
+        <v>380000</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="49">
+        <v>29234022</v>
+      </c>
+      <c r="D17" s="13">
+        <v>56691290</v>
+      </c>
+      <c r="E17" s="57">
+        <f>D17/C17</f>
+        <v>1.9392230737186966</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="19">
+        <v>94514463</v>
+      </c>
+      <c r="H17" s="14">
+        <v>84879667</v>
+      </c>
+      <c r="I17" s="59">
+        <f>H17/G17</f>
+        <v>0.89806008843323804</v>
+      </c>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="53">
+        <v>400000</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="49">
+        <v>34845012</v>
+      </c>
+      <c r="D18" s="13">
+        <v>61609208</v>
+      </c>
+      <c r="E18" s="57">
+        <f>D18/C18</f>
+        <v>1.7680926038998064</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="19">
+        <v>48592966</v>
+      </c>
+      <c r="H18" s="14">
+        <v>75054697</v>
+      </c>
+      <c r="I18" s="59">
+        <f>H18/G18</f>
+        <v>1.5445588771016776</v>
+      </c>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="53">
+        <v>420000</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="49">
+        <v>30321928</v>
+      </c>
+      <c r="D19" s="13">
+        <v>63403470</v>
+      </c>
+      <c r="E19" s="57">
+        <f>D19/C19</f>
+        <v>2.0910105056644155</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="19">
+        <v>45151751</v>
+      </c>
+      <c r="H19" s="14">
+        <v>112283807</v>
+      </c>
+      <c r="I19" s="59">
+        <f>H19/G19</f>
+        <v>2.4868095813161264</v>
+      </c>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="53">
+        <v>440000</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="49">
+        <v>48635830</v>
+      </c>
+      <c r="D20" s="13">
+        <v>68410739</v>
+      </c>
+      <c r="E20" s="57">
+        <f>D20/C20</f>
+        <v>1.4065913751240597</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="19">
+        <v>40030983</v>
+      </c>
+      <c r="H20" s="14">
+        <v>99899058</v>
+      </c>
+      <c r="I20" s="59">
+        <f>H20/G20</f>
+        <v>2.4955434644210461</v>
+      </c>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="53">
+        <v>460000</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="49">
+        <v>37060672</v>
+      </c>
+      <c r="D21" s="13">
+        <v>69222744</v>
+      </c>
+      <c r="E21" s="57">
+        <f>D21/C21</f>
+        <v>1.8678221485028659</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="19">
+        <v>94243995</v>
+      </c>
+      <c r="H21" s="14">
+        <v>68010471</v>
+      </c>
+      <c r="I21" s="59">
+        <f>H21/G21</f>
+        <v>0.72164248767255679</v>
+      </c>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="53">
+        <v>480000</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="49">
+        <v>103400041</v>
+      </c>
+      <c r="D22" s="13">
+        <v>89606205</v>
+      </c>
+      <c r="E22" s="57">
+        <f>D22/C22</f>
+        <v>0.86659738365094074</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="19">
+        <v>40797709</v>
+      </c>
+      <c r="H22" s="14">
+        <v>86177668</v>
+      </c>
+      <c r="I22" s="59">
+        <f>H22/G22</f>
+        <v>2.1123163558032143</v>
+      </c>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="53">
+        <v>500000</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="50">
+        <v>72113968</v>
+      </c>
+      <c r="D23" s="47">
+        <v>95639801</v>
+      </c>
+      <c r="E23" s="58">
+        <f>D23/C23</f>
+        <v>1.3262312926671849</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="66">
+        <v>64403233</v>
+      </c>
+      <c r="H23" s="16">
+        <v>107058595</v>
+      </c>
+      <c r="I23" s="60">
+        <f>H23/G23</f>
+        <v>1.6623170920627541</v>
+      </c>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52">
+        <v>100000</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="18">
+        <v>7536863</v>
+      </c>
+      <c r="D24" s="15">
+        <v>12702911</v>
+      </c>
+      <c r="E24" s="61">
+        <f>D24/C24</f>
+        <v>1.6854374293389702</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="48">
+        <v>7280885</v>
+      </c>
+      <c r="H24" s="42">
+        <v>13990650</v>
+      </c>
+      <c r="I24" s="61">
+        <f>H24/G24</f>
+        <v>1.9215589863045495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="53">
+        <v>120000</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="19">
+        <v>9660153</v>
+      </c>
+      <c r="D25" s="14">
+        <v>15553686</v>
+      </c>
+      <c r="E25" s="59">
+        <f>D25/C25</f>
+        <v>1.6100869209835496</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="49">
+        <v>11482185</v>
+      </c>
+      <c r="H25" s="13">
+        <v>16539563</v>
+      </c>
+      <c r="I25" s="59">
+        <f>H25/G25</f>
+        <v>1.4404543211940932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="53">
+        <v>140000</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="19">
+        <v>12421577</v>
+      </c>
+      <c r="D26" s="14">
+        <v>18062754</v>
+      </c>
+      <c r="E26" s="59">
+        <f>D26/C26</f>
+        <v>1.4541433829215082</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="49">
+        <v>9499563</v>
+      </c>
+      <c r="H26" s="13">
+        <v>23243894</v>
+      </c>
+      <c r="I26" s="59">
+        <f>H26/G26</f>
+        <v>2.4468382387695096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="53">
+        <v>160000</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="19">
+        <v>14678288</v>
+      </c>
+      <c r="D27" s="14">
+        <v>21301117</v>
+      </c>
+      <c r="E27" s="59">
+        <f>D27/C27</f>
+        <v>1.4511990090397464</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="49">
+        <v>10652068</v>
+      </c>
+      <c r="H27" s="13">
+        <v>21060836</v>
+      </c>
+      <c r="I27" s="59">
+        <f>H27/G27</f>
+        <v>1.9771593647355612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="53">
+        <v>180000</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="19">
+        <v>11286580</v>
+      </c>
+      <c r="D28" s="14">
+        <v>23944211</v>
+      </c>
+      <c r="E28" s="59">
+        <f>D28/C28</f>
+        <v>2.1214762133436347</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="49">
+        <v>13645924</v>
+      </c>
+      <c r="H28" s="13">
+        <v>24221923</v>
+      </c>
+      <c r="I28" s="59">
+        <f>H28/G28</f>
+        <v>1.7750298917097882</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="53">
+        <v>200000</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="19">
+        <v>24709126</v>
+      </c>
+      <c r="D29" s="14">
+        <v>26906674</v>
+      </c>
+      <c r="E29" s="59">
+        <f>D29/C29</f>
+        <v>1.0889366948875487</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="49">
+        <v>14026269</v>
+      </c>
+      <c r="H29" s="13">
+        <v>26892185</v>
+      </c>
+      <c r="I29" s="59">
+        <f>H29/G29</f>
+        <v>1.9172728685012386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="53">
+        <v>220000</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="19">
+        <v>14244213</v>
+      </c>
+      <c r="D30" s="14">
+        <v>29875174</v>
+      </c>
+      <c r="E30" s="59">
+        <f>D30/C30</f>
+        <v>2.097355185576065</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="49">
+        <v>15767403</v>
+      </c>
+      <c r="H30" s="13">
+        <v>29856459</v>
+      </c>
+      <c r="I30" s="59">
+        <f>H30/G30</f>
+        <v>1.8935559013745002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="53">
+        <v>240000</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="19">
+        <v>16112732</v>
+      </c>
+      <c r="D31" s="14">
+        <v>39487633</v>
+      </c>
+      <c r="E31" s="59">
+        <f>D31/C31</f>
+        <v>2.4507099727097801</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="49">
+        <v>28726292</v>
+      </c>
+      <c r="H31" s="13">
+        <v>34389203</v>
+      </c>
+      <c r="I31" s="59">
+        <f>H31/G31</f>
+        <v>1.1971333787180052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="53">
+        <v>260000</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="19">
+        <v>17647392</v>
+      </c>
+      <c r="D32" s="14">
+        <v>35667281</v>
+      </c>
+      <c r="E32" s="59">
+        <f>D32/C32</f>
+        <v>2.0211077648187334</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="49">
+        <v>37546064</v>
+      </c>
+      <c r="H32" s="13">
+        <v>41159339</v>
+      </c>
+      <c r="I32" s="59">
+        <f>H32/G32</f>
+        <v>1.096235786526119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="53">
+        <v>280000</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="19">
+        <v>20387686</v>
+      </c>
+      <c r="D33" s="14">
+        <v>38412404</v>
+      </c>
+      <c r="E33" s="59">
+        <f>D33/C33</f>
+        <v>1.8840982738305858</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="49">
+        <v>22728316</v>
+      </c>
+      <c r="H33" s="13">
+        <v>38882704</v>
+      </c>
+      <c r="I33" s="59">
+        <f>H33/G33</f>
+        <v>1.7107604452525211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="53">
+        <v>300000</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="19">
+        <v>18556597</v>
+      </c>
+      <c r="D34" s="14">
+        <v>41778154</v>
+      </c>
+      <c r="E34" s="59">
+        <f>D34/C34</f>
+        <v>2.2513909204365432</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="49">
+        <v>28662901</v>
+      </c>
+      <c r="H34" s="13">
+        <v>42166347</v>
+      </c>
+      <c r="I34" s="59">
+        <f>H34/G34</f>
+        <v>1.4711123273949138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="53">
+        <v>320000</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="19">
+        <v>52529836</v>
+      </c>
+      <c r="D35" s="14">
+        <v>53613517</v>
+      </c>
+      <c r="E35" s="59">
+        <f>D35/C35</f>
+        <v>1.0206298188328629</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="49">
+        <v>26409208</v>
+      </c>
+      <c r="H35" s="13">
+        <v>48138363</v>
+      </c>
+      <c r="I35" s="59">
+        <f>H35/G35</f>
+        <v>1.8227870748717645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="53">
+        <v>340000</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="19">
+        <v>27502548</v>
+      </c>
+      <c r="D36" s="14">
+        <v>54916952</v>
+      </c>
+      <c r="E36" s="59">
+        <f>D36/C36</f>
+        <v>1.996795060588568</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="49">
+        <v>20566388</v>
+      </c>
+      <c r="H36" s="13">
+        <v>48643074</v>
+      </c>
+      <c r="I36" s="59">
+        <f>H36/G36</f>
+        <v>2.3651734081842664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="53">
+        <v>360000</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="19">
+        <v>29284735</v>
+      </c>
+      <c r="D37" s="14">
+        <v>64441268</v>
+      </c>
+      <c r="E37" s="59">
+        <f>D37/C37</f>
+        <v>2.200507124274814</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="49">
+        <v>25864651</v>
+      </c>
+      <c r="H37" s="13">
+        <v>60090244</v>
+      </c>
+      <c r="I37" s="59">
+        <f>H37/G37</f>
+        <v>2.3232574837371671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="53">
+        <v>380000</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="19">
+        <v>30215674</v>
+      </c>
+      <c r="D38" s="14">
+        <v>63122739</v>
+      </c>
+      <c r="E38" s="59">
+        <f>D38/C38</f>
+        <v>2.0890726779750137</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="49">
+        <v>24318519</v>
+      </c>
+      <c r="H38" s="13">
+        <v>53487338</v>
+      </c>
+      <c r="I38" s="59">
+        <f>H38/G38</f>
+        <v>2.1994488233432308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="53">
+        <v>400000</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="19">
+        <v>32789944</v>
+      </c>
+      <c r="D39" s="14">
+        <v>56783056</v>
+      </c>
+      <c r="E39" s="59">
+        <f>D39/C39</f>
+        <v>1.7317216522236207</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="49">
+        <v>41045839</v>
+      </c>
+      <c r="H39" s="13">
+        <v>59467203</v>
+      </c>
+      <c r="I39" s="59">
+        <f>H39/G39</f>
+        <v>1.4487997918619717</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="53">
+        <v>420000</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="19">
+        <v>32233312</v>
+      </c>
+      <c r="D40" s="14">
+        <v>67916291</v>
+      </c>
+      <c r="E40" s="59">
+        <f>D40/C40</f>
+        <v>2.1070217978220791</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="49">
+        <v>34887273</v>
+      </c>
+      <c r="H40" s="13">
+        <v>65768852</v>
+      </c>
+      <c r="I40" s="59">
+        <f>H40/G40</f>
+        <v>1.8851817968116913</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="53">
+        <v>440000</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="19">
+        <v>34480365</v>
+      </c>
+      <c r="D41" s="14">
+        <v>71658761</v>
+      </c>
+      <c r="E41" s="59">
+        <f>D41/C41</f>
+        <v>2.078248330607869</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="49">
+        <v>27750074</v>
+      </c>
+      <c r="H41" s="13">
+        <v>67783471</v>
+      </c>
+      <c r="I41" s="59">
+        <f>H41/G41</f>
+        <v>2.4426410898940305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="53">
+        <v>460000</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="19">
+        <v>27783882</v>
+      </c>
+      <c r="D42" s="14">
+        <v>65267763</v>
+      </c>
+      <c r="E42" s="59">
+        <f>D42/C42</f>
+        <v>2.349123243469001</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="49">
+        <v>28030201</v>
+      </c>
+      <c r="H42" s="13">
+        <v>66657530</v>
+      </c>
+      <c r="I42" s="59">
+        <f>H42/G42</f>
+        <v>2.3780610777639448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="53">
+        <v>480000</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="19">
+        <v>30305628</v>
+      </c>
+      <c r="D43" s="14">
+        <v>68590044</v>
+      </c>
+      <c r="E43" s="59">
+        <f>D43/C43</f>
+        <v>2.263277434805179</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="49">
+        <v>34624654</v>
+      </c>
+      <c r="H43" s="13">
+        <v>74674956</v>
+      </c>
+      <c r="I43" s="59">
+        <f>H43/G43</f>
+        <v>2.1566989810208645</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="54">
+        <v>500000</v>
+      </c>
+      <c r="B44" s="39"/>
+      <c r="C44" s="66">
+        <v>47118073</v>
+      </c>
+      <c r="D44" s="16">
+        <v>82055455</v>
+      </c>
+      <c r="E44" s="60">
+        <f>D44/C44</f>
+        <v>1.7414857988780654</v>
+      </c>
+      <c r="F44" s="39"/>
+      <c r="G44" s="50">
+        <v>30375056</v>
+      </c>
+      <c r="H44" s="47">
+        <v>73956527</v>
+      </c>
+      <c r="I44" s="60">
+        <f>H44/G44</f>
+        <v>2.4347782930836406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="52">
+        <v>100000</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="48">
+        <v>7280885</v>
+      </c>
+      <c r="D45" s="42">
+        <v>13990650</v>
+      </c>
+      <c r="E45" s="61">
+        <f>D45/C45</f>
+        <v>1.9215589863045495</v>
+      </c>
+      <c r="M45"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="53">
+        <v>120000</v>
+      </c>
+      <c r="B46" s="38"/>
+      <c r="C46" s="49">
+        <v>11482185</v>
+      </c>
+      <c r="D46" s="13">
+        <v>16539563</v>
+      </c>
+      <c r="E46" s="59">
+        <f>D46/C46</f>
+        <v>1.4404543211940932</v>
+      </c>
+      <c r="M46"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="53">
+        <v>140000</v>
+      </c>
+      <c r="B47" s="38"/>
+      <c r="C47" s="49">
+        <v>9499563</v>
+      </c>
+      <c r="D47" s="13">
+        <v>23243894</v>
+      </c>
+      <c r="E47" s="59">
+        <f>D47/C47</f>
+        <v>2.4468382387695096</v>
+      </c>
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="53">
+        <v>160000</v>
+      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="49">
+        <v>10652068</v>
+      </c>
+      <c r="D48" s="13">
+        <v>21060836</v>
+      </c>
+      <c r="E48" s="59">
+        <f>D48/C48</f>
+        <v>1.9771593647355612</v>
+      </c>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="53">
+        <v>180000</v>
+      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="49">
+        <v>13645924</v>
+      </c>
+      <c r="D49" s="13">
+        <v>24221923</v>
+      </c>
+      <c r="E49" s="59">
+        <f>D49/C49</f>
+        <v>1.7750298917097882</v>
+      </c>
+      <c r="M49"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="53">
+        <v>200000</v>
+      </c>
+      <c r="B50" s="38"/>
+      <c r="C50" s="49">
+        <v>14026269</v>
+      </c>
+      <c r="D50" s="13">
+        <v>26892185</v>
+      </c>
+      <c r="E50" s="59">
+        <f>D50/C50</f>
+        <v>1.9172728685012386</v>
+      </c>
+      <c r="M50"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="53">
+        <v>220000</v>
+      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="49">
+        <v>15767403</v>
+      </c>
+      <c r="D51" s="13">
+        <v>29856459</v>
+      </c>
+      <c r="E51" s="59">
+        <f>D51/C51</f>
+        <v>1.8935559013745002</v>
+      </c>
+      <c r="M51"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="53">
+        <v>240000</v>
+      </c>
+      <c r="B52" s="38"/>
+      <c r="C52" s="49">
+        <v>28726292</v>
+      </c>
+      <c r="D52" s="13">
+        <v>34389203</v>
+      </c>
+      <c r="E52" s="59">
+        <f>D52/C52</f>
+        <v>1.1971333787180052</v>
+      </c>
+      <c r="M52"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="53">
+        <v>260000</v>
+      </c>
+      <c r="B53" s="38"/>
+      <c r="C53" s="49">
+        <v>37546064</v>
+      </c>
+      <c r="D53" s="13">
+        <v>41159339</v>
+      </c>
+      <c r="E53" s="59">
+        <f>D53/C53</f>
+        <v>1.096235786526119</v>
+      </c>
+      <c r="M53"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="53">
+        <v>280000</v>
+      </c>
+      <c r="B54" s="38"/>
+      <c r="C54" s="49">
+        <v>22728316</v>
+      </c>
+      <c r="D54" s="13">
+        <v>38882704</v>
+      </c>
+      <c r="E54" s="59">
+        <f>D54/C54</f>
+        <v>1.7107604452525211</v>
+      </c>
+      <c r="M54"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="53">
+        <v>300000</v>
+      </c>
+      <c r="B55" s="38"/>
+      <c r="C55" s="49">
+        <v>28662901</v>
+      </c>
+      <c r="D55" s="13">
+        <v>42166347</v>
+      </c>
+      <c r="E55" s="59">
+        <f>D55/C55</f>
+        <v>1.4711123273949138</v>
+      </c>
+      <c r="M55"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="53">
+        <v>320000</v>
+      </c>
+      <c r="B56" s="38"/>
+      <c r="C56" s="49">
+        <v>26409208</v>
+      </c>
+      <c r="D56" s="13">
+        <v>48138363</v>
+      </c>
+      <c r="E56" s="59">
+        <f>D56/C56</f>
+        <v>1.8227870748717645</v>
+      </c>
+      <c r="M56"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="53">
+        <v>340000</v>
+      </c>
+      <c r="B57" s="38"/>
+      <c r="C57" s="49">
+        <v>20566388</v>
+      </c>
+      <c r="D57" s="13">
+        <v>48643074</v>
+      </c>
+      <c r="E57" s="59">
+        <f>D57/C57</f>
+        <v>2.3651734081842664</v>
+      </c>
+      <c r="M57"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="53">
+        <v>360000</v>
+      </c>
+      <c r="B58" s="38"/>
+      <c r="C58" s="49">
+        <v>25864651</v>
+      </c>
+      <c r="D58" s="13">
+        <v>60090244</v>
+      </c>
+      <c r="E58" s="59">
+        <f>D58/C58</f>
+        <v>2.3232574837371671</v>
+      </c>
+      <c r="M58"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="53">
+        <v>380000</v>
+      </c>
+      <c r="B59" s="38"/>
+      <c r="C59" s="49">
+        <v>24318519</v>
+      </c>
+      <c r="D59" s="13">
+        <v>53487338</v>
+      </c>
+      <c r="E59" s="59">
+        <f>D59/C59</f>
+        <v>2.1994488233432308</v>
+      </c>
+      <c r="M59"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="53">
+        <v>400000</v>
+      </c>
+      <c r="B60" s="38"/>
+      <c r="C60" s="49">
+        <v>41045839</v>
+      </c>
+      <c r="D60" s="13">
+        <v>59467203</v>
+      </c>
+      <c r="E60" s="59">
+        <f>D60/C60</f>
+        <v>1.4487997918619717</v>
+      </c>
+      <c r="M60"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="53">
+        <v>420000</v>
+      </c>
+      <c r="B61" s="38"/>
+      <c r="C61" s="49">
+        <v>34887273</v>
+      </c>
+      <c r="D61" s="13">
+        <v>65768852</v>
+      </c>
+      <c r="E61" s="59">
+        <f>D61/C61</f>
+        <v>1.8851817968116913</v>
+      </c>
+      <c r="M61"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="53">
+        <v>440000</v>
+      </c>
+      <c r="B62" s="38"/>
+      <c r="C62" s="49">
+        <v>27750074</v>
+      </c>
+      <c r="D62" s="13">
+        <v>67783471</v>
+      </c>
+      <c r="E62" s="59">
+        <f>D62/C62</f>
+        <v>2.4426410898940305</v>
+      </c>
+      <c r="M62"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="53">
+        <v>460000</v>
+      </c>
+      <c r="B63" s="38"/>
+      <c r="C63" s="49">
+        <v>28030201</v>
+      </c>
+      <c r="D63" s="13">
+        <v>66657530</v>
+      </c>
+      <c r="E63" s="59">
+        <f>D63/C63</f>
+        <v>2.3780610777639448</v>
+      </c>
+      <c r="M63"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="53">
+        <v>480000</v>
+      </c>
+      <c r="B64" s="38"/>
+      <c r="C64" s="49">
+        <v>34624654</v>
+      </c>
+      <c r="D64" s="13">
+        <v>74674956</v>
+      </c>
+      <c r="E64" s="59">
+        <f>D64/C64</f>
+        <v>2.1566989810208645</v>
+      </c>
+      <c r="M64"/>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="54">
+        <v>500000</v>
+      </c>
+      <c r="B65" s="39"/>
+      <c r="C65" s="50">
+        <v>30375056</v>
+      </c>
+      <c r="D65" s="47">
+        <v>73956527</v>
+      </c>
+      <c r="E65" s="60">
+        <f>D65/C65</f>
+        <v>2.4347782930836406</v>
+      </c>
+      <c r="M65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B45:B65"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="F3:F23"/>
+    <mergeCell ref="B24:B44"/>
+    <mergeCell ref="F24:F44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="69" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>